--- a/Results/data124.xlsx
+++ b/Results/data124.xlsx
@@ -8242,9 +8242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8265,16 +8265,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8559,13 +8559,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL123"/>
+  <dimension ref="A1:AL124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" activeCellId="4" sqref="B1:B1048576 AB1:AB1048576 AC1:AC1048576 AD1:AD1048576 AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F42" workbookViewId="0">
+      <selection activeCell="AH83" sqref="AH83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="18" max="18" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -22833,6 +22836,12 @@
       </c>
       <c r="AL123">
         <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="R124">
+        <f>MAX(R2:R122)</f>
+        <v>1.3822362632254226E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Results/data124.xlsx
+++ b/Results/data124.xlsx
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>10.064273072046898</v>
+        <v>10.0642730720469</v>
       </c>
       <c r="H2">
         <v>10.405813905082212</v>
       </c>
       <c r="I2">
-        <v>10.079102920110397</v>
+        <v>10.079102920110399</v>
       </c>
       <c r="J2">
         <v>10.079102929796418</v>
@@ -734,28 +734,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.33447816208157832</v>
+        <v>8.8210670615634146E-2</v>
       </c>
       <c r="AK2">
-        <v>2.0045622088480681</v>
+        <v>1.7759498835227792</v>
       </c>
       <c r="AL2">
-        <v>6.6955803281044127E-2</v>
+        <v>3.534656263100279E-2</v>
       </c>
       <c r="AM2">
-        <v>6.2328484168904366</v>
+        <v>4.838689232744998</v>
       </c>
       <c r="AN2">
-        <v>1.4375</v>
+        <v>0.36875000000000002</v>
       </c>
       <c r="AO2">
-        <v>19.046875</v>
+        <v>17.959375000000001</v>
       </c>
       <c r="AP2">
-        <v>0.296875</v>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="AQ2">
-        <v>12.71875</v>
+        <v>12.9828125</v>
       </c>
       <c r="AR2">
         <v>5</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>14.82026574030089</v>
+        <v>14.820265740300893</v>
       </c>
       <c r="H3">
-        <v>15.34217106712309</v>
+        <v>15.342171067123093</v>
       </c>
       <c r="I3">
         <v>14.870135517770999</v>
@@ -874,28 +874,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.1400316506446237</v>
+        <v>6.7477532870375265E-2</v>
       </c>
       <c r="AK3">
-        <v>1.508275097601248</v>
+        <v>1.3097316774098982</v>
       </c>
       <c r="AL3">
-        <v>6.8462640820992321E-2</v>
+        <v>3.2134466320073565E-2</v>
       </c>
       <c r="AM3">
-        <v>5.4727229689767229</v>
+        <v>4.7407359153653381</v>
       </c>
       <c r="AN3">
-        <v>0.875</v>
+        <v>0.47031250000000002</v>
       </c>
       <c r="AO3">
-        <v>14.1875</v>
+        <v>12.940625000000001</v>
       </c>
       <c r="AP3">
-        <v>0.3125</v>
+        <v>0.16093750000000001</v>
       </c>
       <c r="AQ3">
-        <v>12.328125</v>
+        <v>12.025</v>
       </c>
       <c r="AR3">
         <v>4</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>19.439045947276909</v>
+        <v>19.439045947276906</v>
       </c>
       <c r="H4">
-        <v>20.142562291910608</v>
+        <v>20.142562291910611</v>
       </c>
       <c r="I4">
-        <v>19.464019087140326</v>
+        <v>19.464019087140322</v>
       </c>
       <c r="J4">
         <v>19.464019087550756</v>
@@ -1005,7 +1005,7 @@
         <v>1.9846567267389759E-7</v>
       </c>
       <c r="AG4">
-        <v>4.8584667001853297E-10</v>
+        <v>4.8584667001853286E-10</v>
       </c>
       <c r="AH4">
         <v>4</v>
@@ -1014,28 +1014,28 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.11273056410506423</v>
+        <v>7.0543306978016709E-2</v>
       </c>
       <c r="AK4">
-        <v>1.9926556905087838</v>
+        <v>1.6452643020972957</v>
       </c>
       <c r="AL4">
-        <v>9.2886366872924009E-2</v>
+        <v>6.4647439505776089E-2</v>
       </c>
       <c r="AM4">
-        <v>5.5772230183707165</v>
+        <v>4.8121876259912106</v>
       </c>
       <c r="AN4">
-        <v>0.5</v>
+        <v>0.4140625</v>
       </c>
       <c r="AO4">
-        <v>18.78125</v>
+        <v>16.384374999999999</v>
       </c>
       <c r="AP4">
-        <v>0.296875</v>
+        <v>0.20156250000000001</v>
       </c>
       <c r="AQ4">
-        <v>13.671875</v>
+        <v>11.4984375</v>
       </c>
       <c r="AR4">
         <v>5</v>
@@ -1067,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.6783021116889</v>
+        <v>23.678302111688904</v>
       </c>
       <c r="H5">
-        <v>24.800854487998791</v>
+        <v>24.800854487998787</v>
       </c>
       <c r="I5">
-        <v>23.845612859758393</v>
+        <v>23.845612859758397</v>
       </c>
       <c r="J5">
-        <v>23.845612869482821</v>
+        <v>23.845612869482817</v>
       </c>
       <c r="K5">
         <v>1.6888996867692185E-9</v>
@@ -1145,7 +1145,7 @@
         <v>3.6982296192089592E-7</v>
       </c>
       <c r="AG5">
-        <v>1.7399505496468506E-10</v>
+        <v>1.7399505496468504E-10</v>
       </c>
       <c r="AH5">
         <v>4</v>
@@ -1154,28 +1154,28 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.10930986968966459</v>
+        <v>7.3259793756897951E-2</v>
       </c>
       <c r="AK5">
-        <v>1.768190460672759</v>
+        <v>1.4785010922846631</v>
       </c>
       <c r="AL5">
-        <v>0.11258270286497991</v>
+        <v>6.2215129561864112E-2</v>
       </c>
       <c r="AM5">
-        <v>5.1560709066812755</v>
+        <v>4.679648865201071</v>
       </c>
       <c r="AN5">
-        <v>0.40625</v>
+        <v>0.5078125</v>
       </c>
       <c r="AO5">
-        <v>14.625</v>
+        <v>14.317187499999999</v>
       </c>
       <c r="AP5">
-        <v>0.125</v>
+        <v>0.12343750000000001</v>
       </c>
       <c r="AQ5">
-        <v>12.421875</v>
+        <v>12.262499999999999</v>
       </c>
       <c r="AR5">
         <v>5</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.808415693168385</v>
+        <v>27.808415693168392</v>
       </c>
       <c r="H6">
-        <v>29.320806527426399</v>
+        <v>29.320806527426392</v>
       </c>
       <c r="I6">
         <v>28.076931512180238</v>
@@ -1285,7 +1285,7 @@
         <v>2.0589809812676663E-7</v>
       </c>
       <c r="AG6">
-        <v>3.3427211786029442E-9</v>
+        <v>3.3427211786029437E-9</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1294,28 +1294,28 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.28005367908273432</v>
+        <v>0.17280607304499326</v>
       </c>
       <c r="AK6">
-        <v>2.241409935505557</v>
+        <v>1.7483484546842187</v>
       </c>
       <c r="AL6">
-        <v>0.13506306394148673</v>
+        <v>9.147809480921823E-2</v>
       </c>
       <c r="AM6">
-        <v>5.363350234204507</v>
+        <v>4.9516680955693753</v>
       </c>
       <c r="AN6">
-        <v>1.21875</v>
+        <v>1.0687500000000001</v>
       </c>
       <c r="AO6">
-        <v>22.234375</v>
+        <v>17.514062500000001</v>
       </c>
       <c r="AP6">
-        <v>0.375</v>
+        <v>0.35781249999999998</v>
       </c>
       <c r="AQ6">
-        <v>12.3125</v>
+        <v>11.7890625</v>
       </c>
       <c r="AR6">
         <v>24</v>
@@ -1350,13 +1350,13 @@
         <v>31.913147707246473</v>
       </c>
       <c r="H7">
-        <v>33.710712296576574</v>
+        <v>33.710712296576567</v>
       </c>
       <c r="I7">
         <v>32.2255744133127</v>
       </c>
       <c r="J7">
-        <v>32.225574415857388</v>
+        <v>32.225574415857395</v>
       </c>
       <c r="K7">
         <v>3.8588277246471847E-2</v>
@@ -1422,7 +1422,7 @@
         <v>5.9829807774747223E-11</v>
       </c>
       <c r="AF7">
-        <v>1.1113272349544543E-7</v>
+        <v>1.1113272349544542E-7</v>
       </c>
       <c r="AG7">
         <v>3.1217382012727057E-9</v>
@@ -1434,28 +1434,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.24885142928255546</v>
+        <v>0.12398337020255137</v>
       </c>
       <c r="AK7">
-        <v>1.8409462092996702</v>
+        <v>1.431013282861475</v>
       </c>
       <c r="AL7">
-        <v>0.16104334226701753</v>
+        <v>8.8954116987841031E-2</v>
       </c>
       <c r="AM7">
-        <v>5.187390226660697</v>
+        <v>4.8517988297431147</v>
       </c>
       <c r="AN7">
-        <v>0.84375</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="AO7">
-        <v>13.59375</v>
+        <v>14.104687500000001</v>
       </c>
       <c r="AP7">
-        <v>0.515625</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="AQ7">
-        <v>11.75</v>
+        <v>11.421875</v>
       </c>
       <c r="AR7">
         <v>22</v>
@@ -1487,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.984261478886609</v>
+        <v>35.984261478886602</v>
       </c>
       <c r="H8">
-        <v>37.990651182524104</v>
+        <v>37.990651182524111</v>
       </c>
       <c r="I8">
-        <v>36.309356282874958</v>
+        <v>36.309356282874951</v>
       </c>
       <c r="J8">
-        <v>36.30935636453772</v>
+        <v>36.309356364537727</v>
       </c>
       <c r="K8">
         <v>1.4830248886610775E-2</v>
@@ -1574,28 +1574,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.22009803103995526</v>
+        <v>0.13865010230045316</v>
       </c>
       <c r="AK8">
-        <v>1.6248086784604983</v>
+        <v>1.284654482985794</v>
       </c>
       <c r="AL8">
-        <v>0.14144803944334894</v>
+        <v>9.9696610758242168E-2</v>
       </c>
       <c r="AM8">
-        <v>5.7317636734761956</v>
+        <v>4.2892238925362518</v>
       </c>
       <c r="AN8">
-        <v>1.890625</v>
+        <v>0.7421875</v>
       </c>
       <c r="AO8">
-        <v>15.21875</v>
+        <v>12.5078125</v>
       </c>
       <c r="AP8">
-        <v>0.71875</v>
+        <v>0.29062500000000002</v>
       </c>
       <c r="AQ8">
-        <v>12.71875</v>
+        <v>10.378125000000001</v>
       </c>
       <c r="AR8">
         <v>19</v>
@@ -1630,13 +1630,13 @@
         <v>40.012514699717997</v>
       </c>
       <c r="H9">
-        <v>42.166082303694722</v>
+        <v>42.166082303694729</v>
       </c>
       <c r="I9">
         <v>40.329589247146146</v>
       </c>
       <c r="J9">
-        <v>40.329589333569992</v>
+        <v>40.329589333569984</v>
       </c>
       <c r="K9">
         <v>5.2324479717995587E-2</v>
@@ -1714,28 +1714,28 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.20975608347969779</v>
+        <v>0.16616069718905488</v>
       </c>
       <c r="AK9">
-        <v>1.1952669649123031</v>
+        <v>0.92653422614895153</v>
       </c>
       <c r="AL9">
-        <v>0.10582727241236416</v>
+        <v>9.2347528383203814E-2</v>
       </c>
       <c r="AM9">
-        <v>5.4278510918638467</v>
+        <v>4.2041375633985378</v>
       </c>
       <c r="AN9">
-        <v>0.5</v>
+        <v>0.97968750000000004</v>
       </c>
       <c r="AO9">
-        <v>9.078125</v>
+        <v>8.7328124999999996</v>
       </c>
       <c r="AP9">
-        <v>0.3125</v>
+        <v>0.3359375</v>
       </c>
       <c r="AQ9">
-        <v>13.625</v>
+        <v>10.2578125</v>
       </c>
       <c r="AR9">
         <v>19</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.955350344443751</v>
+        <v>43.955350344443744</v>
       </c>
       <c r="H10">
-        <v>46.227430114220766</v>
+        <v>46.227430114220759</v>
       </c>
       <c r="I10">
-        <v>44.280669092229381</v>
+        <v>44.280669092229388</v>
       </c>
       <c r="J10">
-        <v>44.280669051061821</v>
+        <v>44.280669051061814</v>
       </c>
       <c r="K10">
         <v>3.7500584443748153E-2</v>
@@ -1854,28 +1854,28 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.24968150496441707</v>
+        <v>0.14008734428408448</v>
       </c>
       <c r="AK10">
-        <v>1.3880741730996462</v>
+        <v>1.1770174711020065</v>
       </c>
       <c r="AL10">
-        <v>0.17048689647917048</v>
+        <v>9.3036160058913769E-2</v>
       </c>
       <c r="AM10">
-        <v>4.3819531667964595</v>
+        <v>4.3007138740198547</v>
       </c>
       <c r="AN10">
-        <v>0.984375</v>
+        <v>0.69062500000000004</v>
       </c>
       <c r="AO10">
-        <v>12.84375</v>
+        <v>11.207812499999999</v>
       </c>
       <c r="AP10">
-        <v>0.40625</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AQ10">
-        <v>9.9375</v>
+        <v>10.479687500000001</v>
       </c>
       <c r="AR10">
         <v>20</v>
@@ -1913,10 +1913,10 @@
         <v>50.178087733497705</v>
       </c>
       <c r="I11">
-        <v>48.154967014213561</v>
+        <v>48.154967014213568</v>
       </c>
       <c r="J11">
-        <v>48.1549670397022</v>
+        <v>48.154967039702207</v>
       </c>
       <c r="K11">
         <v>2.4365769894899358E-2</v>
@@ -1994,28 +1994,28 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.2237519035931885</v>
+        <v>0.14302539918666407</v>
       </c>
       <c r="AK11">
-        <v>1.6243939613597846</v>
+        <v>1.282384275719527</v>
       </c>
       <c r="AL11">
-        <v>0.16562543700854579</v>
+        <v>0.11469300081436229</v>
       </c>
       <c r="AM11">
-        <v>4.9025325006061991</v>
+        <v>4.3413570309871421</v>
       </c>
       <c r="AN11">
-        <v>1.203125</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="AO11">
-        <v>13.40625</v>
+        <v>12.362500000000001</v>
       </c>
       <c r="AP11">
-        <v>0.328125</v>
+        <v>0.34062500000000001</v>
       </c>
       <c r="AQ11">
-        <v>10.546875</v>
+        <v>11.051562499999999</v>
       </c>
       <c r="AR11">
         <v>21</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>51.522949320068989</v>
+        <v>51.522949320068975</v>
       </c>
       <c r="H12">
         <v>54.030368177065782</v>
@@ -2056,7 +2056,7 @@
         <v>51.950201529092666</v>
       </c>
       <c r="J12">
-        <v>51.95020159881819</v>
+        <v>51.950201598818197</v>
       </c>
       <c r="K12">
         <v>2.0913600689880241E-3</v>
@@ -2134,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.22035750987559127</v>
+        <v>0.14668980494756362</v>
       </c>
       <c r="AK12">
-        <v>1.9333424851208614</v>
+        <v>1.6114675616633263</v>
       </c>
       <c r="AL12">
-        <v>0.17427997028662628</v>
+        <v>0.11291246936519192</v>
       </c>
       <c r="AM12">
-        <v>5.1040638426987339</v>
+        <v>4.1328652113348712</v>
       </c>
       <c r="AN12">
-        <v>1.859375</v>
+        <v>0.9140625</v>
       </c>
       <c r="AO12">
-        <v>17.953125</v>
+        <v>15.7671875</v>
       </c>
       <c r="AP12">
-        <v>0.578125</v>
+        <v>0.49843749999999998</v>
       </c>
       <c r="AQ12">
-        <v>11.75</v>
+        <v>10.68125</v>
       </c>
       <c r="AR12">
         <v>18</v>
@@ -2187,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>55.091579482543374</v>
+        <v>55.091579482543366</v>
       </c>
       <c r="H13">
         <v>57.786421673338666</v>
       </c>
       <c r="I13">
-        <v>55.660379243916374</v>
+        <v>55.660379243916381</v>
       </c>
       <c r="J13">
-        <v>55.660379234277634</v>
+        <v>55.660379234277642</v>
       </c>
       <c r="K13">
         <v>0.39783317254337192</v>
@@ -2274,28 +2274,28 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.32666525113317518</v>
+        <v>0.21798278067995241</v>
       </c>
       <c r="AK13">
-        <v>2.2390585889739776</v>
+        <v>1.7997334960133451</v>
       </c>
       <c r="AL13">
-        <v>7.6362472368230294E-2</v>
+        <v>8.4299229867947592E-2</v>
       </c>
       <c r="AM13">
-        <v>4.0219293293835241</v>
+        <v>4.2445320816722942</v>
       </c>
       <c r="AN13">
-        <v>1.953125</v>
+        <v>1.378125</v>
       </c>
       <c r="AO13">
-        <v>18.328125</v>
+        <v>17.396875000000001</v>
       </c>
       <c r="AP13">
-        <v>0.34375</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="AQ13">
-        <v>11.796875</v>
+        <v>10.957812499999999</v>
       </c>
       <c r="AR13">
         <v>27</v>
@@ -2414,28 +2414,28 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.36606626236293166</v>
+        <v>0.23262228183734757</v>
       </c>
       <c r="AK14">
-        <v>0.95741147249267755</v>
+        <v>0.84405308654210986</v>
       </c>
       <c r="AL14">
-        <v>7.4753960179460566E-2</v>
+        <v>9.0829042615940797E-2</v>
       </c>
       <c r="AM14">
-        <v>4.9660044236490739</v>
+        <v>4.3577460158311512</v>
       </c>
       <c r="AN14">
-        <v>1.953125</v>
+        <v>1.3875</v>
       </c>
       <c r="AO14">
-        <v>8.75</v>
+        <v>7.9562499999999998</v>
       </c>
       <c r="AP14">
-        <v>0.546875</v>
+        <v>0.34375</v>
       </c>
       <c r="AQ14">
-        <v>11.171875</v>
+        <v>10.5640625</v>
       </c>
       <c r="AR14">
         <v>29</v>
@@ -2467,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.01695791989556</v>
+        <v>62.016957919895546</v>
       </c>
       <c r="H15">
-        <v>65.024319001952421</v>
+        <v>65.024319001952435</v>
       </c>
       <c r="I15">
-        <v>62.795108750199667</v>
+        <v>62.795108750199674</v>
       </c>
       <c r="J15">
-        <v>62.795108809758574</v>
+        <v>62.795108809758588</v>
       </c>
       <c r="K15">
         <v>0.459181829895563</v>
@@ -2545,7 +2545,7 @@
         <v>6.319300638324421E-11</v>
       </c>
       <c r="AG15">
-        <v>3.4186017547374024E-10</v>
+        <v>3.418601754737403E-10</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.37791729264465707</v>
+        <v>0.30233044249155727</v>
       </c>
       <c r="AK15">
-        <v>1.1546131423945438</v>
+        <v>0.83655739329656986</v>
       </c>
       <c r="AL15">
-        <v>0.16613669691460742</v>
+        <v>9.7703267424193593E-2</v>
       </c>
       <c r="AM15">
-        <v>5.0873253729887988</v>
+        <v>3.9862090200806541</v>
       </c>
       <c r="AN15">
-        <v>2.59375</v>
+        <v>1.7640625000000001</v>
       </c>
       <c r="AO15">
-        <v>8.1875</v>
+        <v>8.0109375000000007</v>
       </c>
       <c r="AP15">
-        <v>0.171875</v>
+        <v>0.38437500000000002</v>
       </c>
       <c r="AQ15">
-        <v>12.015625</v>
+        <v>10.192187499999999</v>
       </c>
       <c r="AR15">
         <v>38</v>
@@ -2607,16 +2607,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>65.395410653293567</v>
+        <v>65.395410653293553</v>
       </c>
       <c r="H16">
-        <v>68.532909426147455</v>
+        <v>68.532909426147441</v>
       </c>
       <c r="I16">
-        <v>66.229392902249032</v>
+        <v>66.229392902249046</v>
       </c>
       <c r="J16">
-        <v>66.229393566324745</v>
+        <v>66.229393566324731</v>
       </c>
       <c r="K16">
         <v>0.54115243329356133</v>
@@ -2694,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.44426016137081803</v>
+        <v>0.29070898912911347</v>
       </c>
       <c r="AK16">
-        <v>1.4303919958637341</v>
+        <v>1.1369448809199632</v>
       </c>
       <c r="AL16">
-        <v>0.18747650577909722</v>
+        <v>0.10855346613949619</v>
       </c>
       <c r="AM16">
-        <v>4.2123948132458011</v>
+        <v>4.2110539656941466</v>
       </c>
       <c r="AN16">
-        <v>3.28125</v>
+        <v>1.9859374999999999</v>
       </c>
       <c r="AO16">
-        <v>15.328125</v>
+        <v>10.31875</v>
       </c>
       <c r="AP16">
-        <v>0.484375</v>
+        <v>0.38437500000000002</v>
       </c>
       <c r="AQ16">
-        <v>11.0625</v>
+        <v>10.643750000000001</v>
       </c>
       <c r="AR16">
         <v>33</v>
@@ -2747,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>68.703623345275403</v>
+        <v>68.703623345275417</v>
       </c>
       <c r="H17">
-        <v>71.978294008559175</v>
+        <v>71.97829400855916</v>
       </c>
       <c r="I17">
-        <v>69.588671942108903</v>
+        <v>69.588671942108917</v>
       </c>
       <c r="J17">
         <v>69.58867187727526</v>
@@ -2834,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.40748152215609273</v>
+        <v>0.29101350096559181</v>
       </c>
       <c r="AK17">
-        <v>1.8094251437236912</v>
+        <v>1.5086905189178059</v>
       </c>
       <c r="AL17">
-        <v>0.16780614974462663</v>
+        <v>0.10817851950283808</v>
       </c>
       <c r="AM17">
-        <v>4.0443647868296368</v>
+        <v>4.0155095441399435</v>
       </c>
       <c r="AN17">
-        <v>2.859375</v>
+        <v>1.921875</v>
       </c>
       <c r="AO17">
-        <v>15.96875</v>
+        <v>14.765625</v>
       </c>
       <c r="AP17">
-        <v>0.203125</v>
+        <v>0.2578125</v>
       </c>
       <c r="AQ17">
-        <v>10.640625</v>
+        <v>9.9468750000000004</v>
       </c>
       <c r="AR17">
         <v>34</v>
@@ -2887,16 +2887,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>71.95436704742913</v>
+        <v>71.954367047429145</v>
       </c>
       <c r="H18">
-        <v>75.364487536645953</v>
+        <v>75.364487536645939</v>
       </c>
       <c r="I18">
         <v>72.882398383929058</v>
       </c>
       <c r="J18">
-        <v>72.882398420811185</v>
+        <v>72.882398420811199</v>
       </c>
       <c r="K18">
         <v>0.81926898742912613</v>
@@ -2974,28 +2974,28 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.39898543454526092</v>
+        <v>0.25733873846654204</v>
       </c>
       <c r="AK18">
-        <v>0.83462538184122848</v>
+        <v>0.7400611397158936</v>
       </c>
       <c r="AL18">
-        <v>7.4821957105486323E-2</v>
+        <v>0.11490488254932922</v>
       </c>
       <c r="AM18">
-        <v>4.2088355590566131</v>
+        <v>4.5196337967725082</v>
       </c>
       <c r="AN18">
-        <v>3.09375</v>
+        <v>1.9375</v>
       </c>
       <c r="AO18">
-        <v>7.53125</v>
+        <v>6.8125</v>
       </c>
       <c r="AP18">
-        <v>0.171875</v>
+        <v>0.30156250000000001</v>
       </c>
       <c r="AQ18">
-        <v>9.890625</v>
+        <v>10.6015625</v>
       </c>
       <c r="AR18">
         <v>35</v>
@@ -3033,7 +3033,7 @@
         <v>78.694856441095226</v>
       </c>
       <c r="I19">
-        <v>76.118840084474471</v>
+        <v>76.118840084474456</v>
       </c>
       <c r="J19">
         <v>76.118840226120582</v>
@@ -3114,28 +3114,28 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0.40152794224623356</v>
+        <v>0.25514127533816561</v>
       </c>
       <c r="AK19">
-        <v>0.91496086327870918</v>
+        <v>0.71948968768452659</v>
       </c>
       <c r="AL19">
-        <v>0.17410580834873957</v>
+        <v>0.10592572849180681</v>
       </c>
       <c r="AM19">
-        <v>4.9417189366307142</v>
+        <v>4.5501585264116056</v>
       </c>
       <c r="AN19">
-        <v>3.0625</v>
+        <v>1.7953125000000001</v>
       </c>
       <c r="AO19">
-        <v>8.328125</v>
+        <v>6.7281250000000004</v>
       </c>
       <c r="AP19">
-        <v>0.671875</v>
+        <v>0.29843750000000002</v>
       </c>
       <c r="AQ19">
-        <v>11.15625</v>
+        <v>11.410937499999999</v>
       </c>
       <c r="AR19">
         <v>33</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.334188492630986</v>
+        <v>78.334188492631</v>
       </c>
       <c r="H20">
-        <v>81.965876206097676</v>
+        <v>81.965876206097661</v>
       </c>
       <c r="I20">
         <v>79.304623301925176</v>
@@ -3254,28 +3254,28 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>1.0818933166719482</v>
+        <v>0.81837280216000052</v>
       </c>
       <c r="AK20">
-        <v>0.80848826154953446</v>
+        <v>0.70790646669085067</v>
       </c>
       <c r="AL20">
-        <v>0.15625404934524093</v>
+        <v>0.11613835755411628</v>
       </c>
       <c r="AM20">
-        <v>5.3190717264932701</v>
+        <v>4.5373956187373246</v>
       </c>
       <c r="AN20">
-        <v>6.34375</v>
+        <v>5.7296874999999998</v>
       </c>
       <c r="AO20">
-        <v>6.84375</v>
+        <v>6.6812500000000004</v>
       </c>
       <c r="AP20">
-        <v>0.171875</v>
+        <v>0.37656250000000002</v>
       </c>
       <c r="AQ20">
-        <v>11.015625</v>
+        <v>10.8578125</v>
       </c>
       <c r="AR20">
         <v>150</v>
@@ -3310,13 +3310,13 @@
         <v>81.474802115833995</v>
       </c>
       <c r="H21">
-        <v>85.172403918056446</v>
+        <v>85.17240391805646</v>
       </c>
       <c r="I21">
-        <v>82.440886703109271</v>
+        <v>82.440886703109285</v>
       </c>
       <c r="J21">
-        <v>82.440886715616031</v>
+        <v>82.440886715616017</v>
       </c>
       <c r="K21">
         <v>1.4320329358340018</v>
@@ -3394,28 +3394,28 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0.49451726672884749</v>
+        <v>0.34806854370918761</v>
       </c>
       <c r="AK21">
-        <v>0.87676840118699539</v>
+        <v>0.77592832970414494</v>
       </c>
       <c r="AL21">
-        <v>0.17181187431602149</v>
+        <v>8.8613008563473275E-2</v>
       </c>
       <c r="AM21">
-        <v>4.3152090520587034</v>
+        <v>4.7495398163499187</v>
       </c>
       <c r="AN21">
-        <v>3.984375</v>
+        <v>2.5484374999999999</v>
       </c>
       <c r="AO21">
-        <v>7.484375</v>
+        <v>7.3375000000000004</v>
       </c>
       <c r="AP21">
-        <v>0.453125</v>
+        <v>0.2578125</v>
       </c>
       <c r="AQ21">
-        <v>10.140625</v>
+        <v>11.5234375</v>
       </c>
       <c r="AR21">
         <v>37</v>
@@ -3447,16 +3447,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>84.566310521440727</v>
+        <v>84.566310521440741</v>
       </c>
       <c r="H22">
-        <v>88.311867856894679</v>
+        <v>88.311867856894665</v>
       </c>
       <c r="I22">
-        <v>85.529315188749194</v>
+        <v>85.529315188749209</v>
       </c>
       <c r="J22">
-        <v>85.529315191634652</v>
+        <v>85.529315191634637</v>
       </c>
       <c r="K22">
         <v>1.0951107914407316</v>
@@ -3534,28 +3534,28 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0.47247535752912001</v>
+        <v>0.33301855777369582</v>
       </c>
       <c r="AK22">
-        <v>2.6209783987878588</v>
+        <v>2.0463003287278081</v>
       </c>
       <c r="AL22">
-        <v>0.1601767022004062</v>
+        <v>9.643374109180998E-2</v>
       </c>
       <c r="AM22">
-        <v>5.1781743980026862</v>
+        <v>4.3393676327716832</v>
       </c>
       <c r="AN22">
-        <v>3.328125</v>
+        <v>2.5171874999999999</v>
       </c>
       <c r="AO22">
-        <v>22.625</v>
+        <v>19.3515625</v>
       </c>
       <c r="AP22">
-        <v>0.1875</v>
+        <v>0.35</v>
       </c>
       <c r="AQ22">
-        <v>12.953125</v>
+        <v>10.55625</v>
       </c>
       <c r="AR22">
         <v>34</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>87.616435307378836</v>
+        <v>87.61643530737885</v>
       </c>
       <c r="H23">
-        <v>91.385400736871546</v>
+        <v>91.38540073687156</v>
       </c>
       <c r="I23">
         <v>88.57123472172259</v>
       </c>
       <c r="J23">
-        <v>88.571234686950632</v>
+        <v>88.571234686950646</v>
       </c>
       <c r="K23">
         <v>1.3443888073788344</v>
@@ -3674,28 +3674,28 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.55877756922536104</v>
+        <v>0.33192021109912612</v>
       </c>
       <c r="AK23">
-        <v>1.8709912283965426</v>
+        <v>1.7780967978145967</v>
       </c>
       <c r="AL23">
-        <v>0.17780939563562373</v>
+        <v>0.11309416933924395</v>
       </c>
       <c r="AM23">
-        <v>4.5671091171048195</v>
+        <v>4.2939553726902213</v>
       </c>
       <c r="AN23">
-        <v>1.78125</v>
+        <v>2.6359374999999998</v>
       </c>
       <c r="AO23">
-        <v>16.5</v>
+        <v>17.407812499999999</v>
       </c>
       <c r="AP23">
-        <v>0.171875</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="AQ23">
-        <v>10.078125</v>
+        <v>10.646875</v>
       </c>
       <c r="AR23">
         <v>36</v>
@@ -3733,7 +3733,7 @@
         <v>94.395153771882619</v>
       </c>
       <c r="I24">
-        <v>91.569365271251797</v>
+        <v>91.569365271251812</v>
       </c>
       <c r="J24">
         <v>91.56936539145147</v>
@@ -3805,7 +3805,7 @@
         <v>8.0126794088641873E-11</v>
       </c>
       <c r="AG24">
-        <v>6.035595974511182E-2</v>
+        <v>6.0355959745111806E-2</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3814,28 +3814,28 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0.55200385658037043</v>
+        <v>0.39097036125418844</v>
       </c>
       <c r="AK24">
-        <v>0.88550215729870019</v>
+        <v>0.7456392808080885</v>
       </c>
       <c r="AL24">
-        <v>0.19022749462118657</v>
+        <v>0.1055679735914403</v>
       </c>
       <c r="AM24">
-        <v>4.692587501138628</v>
+        <v>4.5482042172996984</v>
       </c>
       <c r="AN24">
-        <v>3.21875</v>
+        <v>2.8218749999999999</v>
       </c>
       <c r="AO24">
-        <v>8.109375</v>
+        <v>6.5687499999999996</v>
       </c>
       <c r="AP24">
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="AQ24">
-        <v>12.3125</v>
+        <v>11.384375</v>
       </c>
       <c r="AR24">
         <v>40</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>93.637127528638587</v>
+        <v>93.637127528638572</v>
       </c>
       <c r="H25">
-        <v>97.348406231430744</v>
+        <v>97.348406231430758</v>
       </c>
       <c r="I25">
-        <v>94.524841253654188</v>
+        <v>94.524841253654174</v>
       </c>
       <c r="J25">
-        <v>94.524841168664665</v>
+        <v>94.524841168664679</v>
       </c>
       <c r="K25">
         <v>1.4611202686385809</v>
@@ -3954,28 +3954,28 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.46328005624500446</v>
+        <v>0.30423368958074937</v>
       </c>
       <c r="AK25">
-        <v>0.83553083147410923</v>
+        <v>0.68134314930156969</v>
       </c>
       <c r="AL25">
-        <v>0.15582650263584311</v>
+        <v>0.10506030418468031</v>
       </c>
       <c r="AM25">
-        <v>5.0826727153995073</v>
+        <v>4.2689704555521448</v>
       </c>
       <c r="AN25">
-        <v>3.71875</v>
+        <v>2.6640625</v>
       </c>
       <c r="AO25">
-        <v>5.734375</v>
+        <v>6.5921874999999996</v>
       </c>
       <c r="AP25">
-        <v>0.359375</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="AQ25">
-        <v>12.203125</v>
+        <v>10.5546875</v>
       </c>
       <c r="AR25">
         <v>36</v>
@@ -4007,16 +4007,16 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>96.589995955550847</v>
+        <v>96.589995955550862</v>
       </c>
       <c r="H26">
         <v>100.24820332171861</v>
       </c>
       <c r="I26">
-        <v>97.438633396805102</v>
+        <v>97.438633396805116</v>
       </c>
       <c r="J26">
-        <v>97.438633434905142</v>
+        <v>97.438633434905128</v>
       </c>
       <c r="K26">
         <v>1.0371406455508492</v>
@@ -4094,28 +4094,28 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0.5475426809006898</v>
+        <v>0.36185314087569448</v>
       </c>
       <c r="AK26">
-        <v>1.7077453630586814</v>
+        <v>1.4288054277133997</v>
       </c>
       <c r="AL26">
-        <v>0.18734147414769703</v>
+        <v>8.746424134888417E-2</v>
       </c>
       <c r="AM26">
-        <v>4.2359066748605096</v>
+        <v>4.0694750137678231</v>
       </c>
       <c r="AN26">
-        <v>3.234375</v>
+        <v>2.734375</v>
       </c>
       <c r="AO26">
-        <v>14.78125</v>
+        <v>14.00625</v>
       </c>
       <c r="AP26">
-        <v>0.25</v>
+        <v>0.359375</v>
       </c>
       <c r="AQ26">
-        <v>11.1875</v>
+        <v>9.8937500000000007</v>
       </c>
       <c r="AR26">
         <v>38</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>99.500183751155447</v>
+        <v>99.500183751155433</v>
       </c>
       <c r="H27">
-        <v>103.09479901060077</v>
+        <v>103.09479901060078</v>
       </c>
       <c r="I27">
-        <v>100.31181792371743</v>
+        <v>100.31181792371741</v>
       </c>
       <c r="J27">
-        <v>100.3118180500115</v>
+        <v>100.31181805001151</v>
       </c>
       <c r="K27">
         <v>1.1680937811554486</v>
@@ -4234,28 +4234,28 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.51407664664820063</v>
+        <v>0.3031353108320447</v>
       </c>
       <c r="AK27">
-        <v>0.82973858389345267</v>
+        <v>0.74647683269201104</v>
       </c>
       <c r="AL27">
-        <v>0.10521594155856652</v>
+        <v>9.9436938562315405E-2</v>
       </c>
       <c r="AM27">
-        <v>5.1326732285838546</v>
+        <v>4.1494754435612293</v>
       </c>
       <c r="AN27">
-        <v>3.03125</v>
+        <v>2.3796875000000002</v>
       </c>
       <c r="AO27">
-        <v>9.1875</v>
+        <v>6.8234374999999998</v>
       </c>
       <c r="AP27">
-        <v>0.109375</v>
+        <v>0.34062500000000001</v>
       </c>
       <c r="AQ27">
-        <v>13.21875</v>
+        <v>10.807812500000001</v>
       </c>
       <c r="AR27">
         <v>36</v>
@@ -4287,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>102.36820366142236</v>
+        <v>102.36820366142237</v>
       </c>
       <c r="H28">
-        <v>105.88844467668231</v>
+        <v>105.88844467668233</v>
       </c>
       <c r="I28">
-        <v>103.14409170033804</v>
+        <v>103.14409170033807</v>
       </c>
       <c r="J28">
-        <v>103.14409170661746</v>
+        <v>103.14409170661744</v>
       </c>
       <c r="K28">
         <v>1.2838441614223512</v>
@@ -4374,28 +4374,28 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0.49827922873524433</v>
+        <v>0.3491228525965776</v>
       </c>
       <c r="AK28">
-        <v>1.8040947620556624</v>
+        <v>1.8069867408733853</v>
       </c>
       <c r="AL28">
-        <v>0.18754065382251775</v>
+        <v>0.11178884827234277</v>
       </c>
       <c r="AM28">
-        <v>4.4670971855687434</v>
+        <v>4.0499642213025497</v>
       </c>
       <c r="AN28">
-        <v>3.53125</v>
+        <v>2.7765624999999998</v>
       </c>
       <c r="AO28">
-        <v>16.3125</v>
+        <v>16.9375</v>
       </c>
       <c r="AP28">
-        <v>0.4375</v>
+        <v>0.3</v>
       </c>
       <c r="AQ28">
-        <v>11.09375</v>
+        <v>10.178125</v>
       </c>
       <c r="AR28">
         <v>36</v>
@@ -4427,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>105.19662047491927</v>
+        <v>105.19662047491929</v>
       </c>
       <c r="H29">
-        <v>108.62961618554435</v>
+        <v>108.62961618554434</v>
       </c>
       <c r="I29">
-        <v>105.9349189540381</v>
+        <v>105.93491895403807</v>
       </c>
       <c r="J29">
         <v>105.9349189473588</v>
@@ -4514,28 +4514,28 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0.56295296537160322</v>
+        <v>0.35375865560622199</v>
       </c>
       <c r="AK29">
-        <v>0.98644455620459115</v>
+        <v>0.7750367970512323</v>
       </c>
       <c r="AL29">
-        <v>9.5430478274982133E-2</v>
+        <v>0.11692860008910197</v>
       </c>
       <c r="AM29">
-        <v>5.05789649584898</v>
+        <v>4.1495280772165559</v>
       </c>
       <c r="AN29">
-        <v>4.546875</v>
+        <v>2.75</v>
       </c>
       <c r="AO29">
-        <v>7.203125</v>
+        <v>6.9812500000000002</v>
       </c>
       <c r="AP29">
-        <v>0.109375</v>
+        <v>0.3359375</v>
       </c>
       <c r="AQ29">
-        <v>11.5</v>
+        <v>10.56875</v>
       </c>
       <c r="AR29">
         <v>37</v>
@@ -4570,13 +4570,13 @@
         <v>107.98182481492745</v>
       </c>
       <c r="H30">
-        <v>111.32073002872306</v>
+        <v>111.32073002872309</v>
       </c>
       <c r="I30">
         <v>108.68407264636593</v>
       </c>
       <c r="J30">
-        <v>108.68407265032978</v>
+        <v>108.6840726503298</v>
       </c>
       <c r="K30">
         <v>1.3078097149274441</v>
@@ -4645,7 +4645,7 @@
         <v>7.3314465609541912E-11</v>
       </c>
       <c r="AG30">
-        <v>4.5789172562147247E-10</v>
+        <v>4.5789172562147257E-10</v>
       </c>
       <c r="AH30">
         <v>2</v>
@@ -4654,28 +4654,28 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.54480131426511358</v>
+        <v>0.35164436070956967</v>
       </c>
       <c r="AK30">
-        <v>0.75898136755930812</v>
+        <v>0.70583742839850316</v>
       </c>
       <c r="AL30">
-        <v>0.18006131269990133</v>
+        <v>0.10101726326161235</v>
       </c>
       <c r="AM30">
-        <v>4.625870970059542</v>
+        <v>3.7600213228848629</v>
       </c>
       <c r="AN30">
-        <v>4.953125</v>
+        <v>2.6296875000000002</v>
       </c>
       <c r="AO30">
-        <v>5.84375</v>
+        <v>6.2921874999999998</v>
       </c>
       <c r="AP30">
-        <v>0.5625</v>
+        <v>0.28593750000000001</v>
       </c>
       <c r="AQ30">
-        <v>11.5</v>
+        <v>9.7843750000000007</v>
       </c>
       <c r="AR30">
         <v>32</v>
@@ -4710,13 +4710,13 @@
         <v>110.72248154080489</v>
       </c>
       <c r="H31">
-        <v>113.96230532450967</v>
+        <v>113.96230532450969</v>
       </c>
       <c r="I31">
         <v>111.39062885747236</v>
       </c>
       <c r="J31">
-        <v>111.39062887772099</v>
+        <v>111.39062887772096</v>
       </c>
       <c r="K31">
         <v>1.5462142408048862</v>
@@ -4794,28 +4794,28 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.45014510287421722</v>
+        <v>0.36749632831341045</v>
       </c>
       <c r="AK31">
-        <v>0.77093150656811815</v>
+        <v>0.73639974892367221</v>
       </c>
       <c r="AL31">
-        <v>0.18316639874167198</v>
+        <v>0.11365014239312177</v>
       </c>
       <c r="AM31">
-        <v>6.2613859569669268</v>
+        <v>4.4070696525120301</v>
       </c>
       <c r="AN31">
-        <v>4.015625</v>
+        <v>2.890625</v>
       </c>
       <c r="AO31">
-        <v>6.21875</v>
+        <v>6.7984375000000004</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.24531249999999999</v>
       </c>
       <c r="AQ31">
-        <v>13.21875</v>
+        <v>10.725</v>
       </c>
       <c r="AR31">
         <v>32</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>113.41579248108366</v>
+        <v>113.41579248108363</v>
       </c>
       <c r="H32">
         <v>116.55480390242785</v>
@@ -4934,28 +4934,28 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.34797779707921128</v>
+        <v>0.34971792402086477</v>
       </c>
       <c r="AK32">
-        <v>0.80830191148339781</v>
+        <v>0.70995366249734981</v>
       </c>
       <c r="AL32">
-        <v>0.18309294923195549</v>
+        <v>9.64046498514807E-2</v>
       </c>
       <c r="AM32">
-        <v>4.6959610467421129</v>
+        <v>3.9472299013046799</v>
       </c>
       <c r="AN32">
-        <v>2.609375</v>
+        <v>2.640625</v>
       </c>
       <c r="AO32">
-        <v>6.90625</v>
+        <v>6.1531250000000002</v>
       </c>
       <c r="AP32">
-        <v>0.1875</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AQ32">
-        <v>10.484375</v>
+        <v>10.317187499999999</v>
       </c>
       <c r="AR32">
         <v>32</v>
@@ -4990,10 +4990,10 @@
         <v>116.05715004271678</v>
       </c>
       <c r="H33">
-        <v>119.09994581056634</v>
+        <v>119.09994581056637</v>
       </c>
       <c r="I33">
-        <v>116.67097961123494</v>
+        <v>116.67097961123497</v>
       </c>
       <c r="J33">
         <v>116.67097960896197</v>
@@ -5074,28 +5074,28 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0.47397674248537747</v>
+        <v>0.398234447171815</v>
       </c>
       <c r="AK33">
-        <v>0.69611403982567133</v>
+        <v>0.66552303131365709</v>
       </c>
       <c r="AL33">
-        <v>0.1340382989478438</v>
+        <v>9.0080368159749707E-2</v>
       </c>
       <c r="AM33">
-        <v>5.9026729848212902</v>
+        <v>3.9690583707558296</v>
       </c>
       <c r="AN33">
-        <v>3.203125</v>
+        <v>2.7</v>
       </c>
       <c r="AO33">
-        <v>7.203125</v>
+        <v>5.8234374999999998</v>
       </c>
       <c r="AP33">
-        <v>0.328125</v>
+        <v>0.31406250000000002</v>
       </c>
       <c r="AQ33">
-        <v>11.78125</v>
+        <v>10.034375000000001</v>
       </c>
       <c r="AR33">
         <v>32</v>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>118.65033776254052</v>
+        <v>118.65033776254049</v>
       </c>
       <c r="H34">
         <v>121.59619947320269</v>
@@ -5214,28 +5214,28 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.56678003764207185</v>
+        <v>0.43911912237469197</v>
       </c>
       <c r="AK34">
-        <v>1.2663362614776887</v>
+        <v>1.129448674488265</v>
       </c>
       <c r="AL34">
-        <v>0.16788056147499444</v>
+        <v>9.46724861976979E-2</v>
       </c>
       <c r="AM34">
-        <v>3.8216578548637687</v>
+        <v>4.1886936750126766</v>
       </c>
       <c r="AN34">
-        <v>3.6875</v>
+        <v>3.6640625</v>
       </c>
       <c r="AO34">
-        <v>12.21875</v>
+        <v>10.8265625</v>
       </c>
       <c r="AP34">
-        <v>0.171875</v>
+        <v>0.28593750000000001</v>
       </c>
       <c r="AQ34">
-        <v>9.5625</v>
+        <v>10.634375</v>
       </c>
       <c r="AR34">
         <v>37</v>
@@ -5270,13 +5270,13 @@
         <v>121.20903946880162</v>
       </c>
       <c r="H35">
-        <v>124.04242153893364</v>
+        <v>124.04242153893367</v>
       </c>
       <c r="I35">
-        <v>121.75484603543333</v>
+        <v>121.7548460354333</v>
       </c>
       <c r="J35">
-        <v>121.75484604038542</v>
+        <v>121.75484604038544</v>
       </c>
       <c r="K35">
         <v>2.4322280688016207</v>
@@ -5354,28 +5354,28 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.5884563029943024</v>
+        <v>0.4223688865496153</v>
       </c>
       <c r="AK35">
-        <v>0.84228722414737633</v>
+        <v>0.72318491668903828</v>
       </c>
       <c r="AL35">
-        <v>0.16561324888029591</v>
+        <v>0.10723906809242612</v>
       </c>
       <c r="AM35">
-        <v>6.254662279795804</v>
+        <v>4.1460619858315706</v>
       </c>
       <c r="AN35">
-        <v>5.046875</v>
+        <v>3.3140624999999999</v>
       </c>
       <c r="AO35">
-        <v>7.78125</v>
+        <v>6.4874999999999998</v>
       </c>
       <c r="AP35">
-        <v>0.421875</v>
+        <v>0.203125</v>
       </c>
       <c r="AQ35">
-        <v>13.234375</v>
+        <v>10.225</v>
       </c>
       <c r="AR35">
         <v>35</v>
@@ -5407,16 +5407,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>123.73356531054428</v>
+        <v>123.73356531054426</v>
       </c>
       <c r="H36">
-        <v>126.43831082007949</v>
+        <v>126.43831082007952</v>
       </c>
       <c r="I36">
-        <v>124.21289357958521</v>
+        <v>124.2128935795852</v>
       </c>
       <c r="J36">
-        <v>124.21289358000568</v>
+        <v>124.21289358000567</v>
       </c>
       <c r="K36">
         <v>2.517241610544275</v>
@@ -5494,28 +5494,28 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0.64109939482735834</v>
+        <v>0.39988437274378513</v>
       </c>
       <c r="AK36">
-        <v>0.77411036285982238</v>
+        <v>0.67717585318000606</v>
       </c>
       <c r="AL36">
-        <v>9.4356319287905402E-2</v>
+        <v>0.10242765919435545</v>
       </c>
       <c r="AM36">
-        <v>3.9340269447441583</v>
+        <v>3.9575575482146412</v>
       </c>
       <c r="AN36">
-        <v>4.65625</v>
+        <v>3.40625</v>
       </c>
       <c r="AO36">
-        <v>7.5625</v>
+        <v>5.8265624999999996</v>
       </c>
       <c r="AP36">
-        <v>9.375E-2</v>
+        <v>0.31874999999999998</v>
       </c>
       <c r="AQ36">
-        <v>10.03125</v>
+        <v>10.403124999999999</v>
       </c>
       <c r="AR36">
         <v>36</v>
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>126.21189345940849</v>
+        <v>126.21189345940846</v>
       </c>
       <c r="H37">
-        <v>128.78081894368262</v>
+        <v>128.78081894368259</v>
       </c>
       <c r="I37">
         <v>126.61337536328611</v>
@@ -5634,28 +5634,28 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.55963330412459089</v>
+        <v>0.37704444544943405</v>
       </c>
       <c r="AK37">
-        <v>0.92663644866167938</v>
+        <v>0.75048889000079222</v>
       </c>
       <c r="AL37">
-        <v>0.15871412681041816</v>
+        <v>0.10771790285193586</v>
       </c>
       <c r="AM37">
-        <v>6.2032030401040741</v>
+        <v>3.9378431812153338</v>
       </c>
       <c r="AN37">
-        <v>4.4375</v>
+        <v>3.3781249999999998</v>
       </c>
       <c r="AO37">
-        <v>6.140625</v>
+        <v>6.55</v>
       </c>
       <c r="AP37">
-        <v>0.25</v>
+        <v>0.37656250000000002</v>
       </c>
       <c r="AQ37">
-        <v>13.125</v>
+        <v>10.259375</v>
       </c>
       <c r="AR37">
         <v>33</v>
@@ -5687,16 +5687,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>128.62970073115144</v>
+        <v>128.62970073115142</v>
       </c>
       <c r="H38">
         <v>131.07132715163905</v>
       </c>
       <c r="I38">
-        <v>128.9563049225095</v>
+        <v>128.95630492250947</v>
       </c>
       <c r="J38">
-        <v>128.956304922979</v>
+        <v>128.95630492297897</v>
       </c>
       <c r="K38">
         <v>2.5986450311514488</v>
@@ -5774,28 +5774,28 @@
         <v>2</v>
       </c>
       <c r="AJ38">
-        <v>0.59193857953138573</v>
+        <v>0.42621399798638582</v>
       </c>
       <c r="AK38">
-        <v>0.97236566437487093</v>
+        <v>0.71336298266360942</v>
       </c>
       <c r="AL38">
-        <v>0.17251012576865393</v>
+        <v>0.1275027046514231</v>
       </c>
       <c r="AM38">
-        <v>4.3579547422724056</v>
+        <v>4.2526251236056973</v>
       </c>
       <c r="AN38">
-        <v>4.15625</v>
+        <v>3.5562499999999999</v>
       </c>
       <c r="AO38">
-        <v>6.671875</v>
+        <v>6.3562500000000002</v>
       </c>
       <c r="AP38">
-        <v>0.203125</v>
+        <v>0.31093749999999998</v>
       </c>
       <c r="AQ38">
-        <v>8.734375</v>
+        <v>10.512499999999999</v>
       </c>
       <c r="AR38">
         <v>33</v>
@@ -5827,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>130.99371347202998</v>
+        <v>130.99371347202995</v>
       </c>
       <c r="H39">
         <v>133.31096918667393</v>
       </c>
       <c r="I39">
-        <v>131.2406205912838</v>
+        <v>131.24062059128383</v>
       </c>
       <c r="J39">
         <v>131.24062060884037</v>
@@ -5914,28 +5914,28 @@
         <v>2</v>
       </c>
       <c r="AJ39">
-        <v>0.52291336036959535</v>
+        <v>0.45478040924671648</v>
       </c>
       <c r="AK39">
-        <v>0.97655100346784318</v>
+        <v>0.78840093438369718</v>
       </c>
       <c r="AL39">
-        <v>0.16276956611546392</v>
+        <v>0.10990526262782745</v>
       </c>
       <c r="AM39">
-        <v>6.3025520016113985</v>
+        <v>4.0838350850622094</v>
       </c>
       <c r="AN39">
-        <v>3.21875</v>
+        <v>4.3515625</v>
       </c>
       <c r="AO39">
-        <v>7.671875</v>
+        <v>7.4187500000000002</v>
       </c>
       <c r="AP39">
-        <v>0.171875</v>
+        <v>0.34375</v>
       </c>
       <c r="AQ39">
-        <v>12.71875</v>
+        <v>10.6703125</v>
       </c>
       <c r="AR39">
         <v>33</v>
@@ -5967,16 +5967,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>133.29648614727074</v>
+        <v>133.29648614727077</v>
       </c>
       <c r="H40">
-        <v>135.4948302906792</v>
+        <v>135.49483029067918</v>
       </c>
       <c r="I40">
         <v>133.4655930081781</v>
       </c>
       <c r="J40">
-        <v>133.46559330824252</v>
+        <v>133.46559330824249</v>
       </c>
       <c r="K40">
         <v>3.1341469472707502</v>
@@ -6054,28 +6054,28 @@
         <v>2</v>
       </c>
       <c r="AJ40">
-        <v>0.47823424812719789</v>
+        <v>0.38517815738585531</v>
       </c>
       <c r="AK40">
-        <v>0.79287045815815571</v>
+        <v>0.72072313061517879</v>
       </c>
       <c r="AL40">
-        <v>0.16162773094257851</v>
+        <v>9.5891688212466769E-2</v>
       </c>
       <c r="AM40">
-        <v>4.3622128893946606</v>
+        <v>4.4233975682032423</v>
       </c>
       <c r="AN40">
-        <v>2.90625</v>
+        <v>3.2578125</v>
       </c>
       <c r="AO40">
-        <v>7.6875</v>
+        <v>6.2374999999999998</v>
       </c>
       <c r="AP40">
-        <v>0.15625</v>
+        <v>0.3125</v>
       </c>
       <c r="AQ40">
-        <v>10.375</v>
+        <v>10.8375</v>
       </c>
       <c r="AR40">
         <v>29</v>
@@ -6110,13 +6110,13 @@
         <v>135.53090440706887</v>
       </c>
       <c r="H41">
-        <v>137.62049643364378</v>
+        <v>137.62049643364381</v>
       </c>
       <c r="I41">
         <v>135.6331307039363</v>
       </c>
       <c r="J41">
-        <v>135.63313070798057</v>
+        <v>135.6331307079806</v>
       </c>
       <c r="K41">
         <v>3.6374371070688767</v>
@@ -6194,28 +6194,28 @@
         <v>2</v>
       </c>
       <c r="AJ41">
-        <v>0.60914019811481734</v>
+        <v>0.38643241643003978</v>
       </c>
       <c r="AK41">
-        <v>0.91598915641474021</v>
+        <v>0.74467256638303514</v>
       </c>
       <c r="AL41">
-        <v>9.3086508768396053E-2</v>
+        <v>0.10420312293021597</v>
       </c>
       <c r="AM41">
-        <v>5.1636124714060099</v>
+        <v>4.2475775528525608</v>
       </c>
       <c r="AN41">
-        <v>5.171875</v>
+        <v>3.5093749999999999</v>
       </c>
       <c r="AO41">
-        <v>8.796875</v>
+        <v>7.171875</v>
       </c>
       <c r="AP41">
-        <v>0.328125</v>
+        <v>0.37187500000000001</v>
       </c>
       <c r="AQ41">
-        <v>12.015625</v>
+        <v>10.3046875</v>
       </c>
       <c r="AR41">
         <v>30</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>137.70408574193348</v>
+        <v>137.70408574193351</v>
       </c>
       <c r="H42">
         <v>139.68813641676502</v>
@@ -6334,28 +6334,28 @@
         <v>2</v>
       </c>
       <c r="AJ42">
-        <v>0.63478241625152187</v>
+        <v>0.5086773043742383</v>
       </c>
       <c r="AK42">
-        <v>0.89853222861849491</v>
+        <v>0.73860333821180923</v>
       </c>
       <c r="AL42">
-        <v>0.16900764259789311</v>
+        <v>8.3987373054583439E-2</v>
       </c>
       <c r="AM42">
-        <v>3.9412990876865264</v>
+        <v>4.5431375624363124</v>
       </c>
       <c r="AN42">
-        <v>4.9375</v>
+        <v>3.9359375000000001</v>
       </c>
       <c r="AO42">
-        <v>8.953125</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="AP42">
-        <v>0.484375</v>
+        <v>0.44062499999999999</v>
       </c>
       <c r="AQ42">
-        <v>10.328125</v>
+        <v>10.7421875</v>
       </c>
       <c r="AR42">
         <v>34</v>
@@ -6387,16 +6387,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>139.82958062135924</v>
+        <v>139.82958062135921</v>
       </c>
       <c r="H43">
-        <v>141.69843926269431</v>
+        <v>141.69843926269434</v>
       </c>
       <c r="I43">
-        <v>139.80439890801046</v>
+        <v>139.80439890801043</v>
       </c>
       <c r="J43">
-        <v>139.80439890701717</v>
+        <v>139.8043989070172</v>
       </c>
       <c r="K43">
         <v>3.6326633213592459</v>
@@ -6474,28 +6474,28 @@
         <v>2</v>
       </c>
       <c r="AJ43">
-        <v>0.75452147484049592</v>
+        <v>0.54229741254746566</v>
       </c>
       <c r="AK43">
-        <v>0.88616833472962242</v>
+        <v>0.76510719015503659</v>
       </c>
       <c r="AL43">
-        <v>0.18623780706064685</v>
+        <v>8.7813817344858214E-2</v>
       </c>
       <c r="AM43">
-        <v>5.9170042992018699</v>
+        <v>4.2185909383512676</v>
       </c>
       <c r="AN43">
-        <v>5.71875</v>
+        <v>4.78125</v>
       </c>
       <c r="AO43">
-        <v>6.296875</v>
+        <v>7.0875000000000004</v>
       </c>
       <c r="AP43">
-        <v>0.40625</v>
+        <v>0.37656250000000002</v>
       </c>
       <c r="AQ43">
-        <v>12.265625</v>
+        <v>10.629687499999999</v>
       </c>
       <c r="AR43">
         <v>38</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>141.90005771751174</v>
+        <v>141.90005771751177</v>
       </c>
       <c r="H44">
         <v>143.65517770620247</v>
@@ -6536,7 +6536,7 @@
         <v>141.81293698832133</v>
       </c>
       <c r="J44">
-        <v>141.81293701512971</v>
+        <v>141.81293701512968</v>
       </c>
       <c r="K44">
         <v>3.8315625175117418</v>
@@ -6614,28 +6614,28 @@
         <v>2</v>
       </c>
       <c r="AJ44">
-        <v>0.62239350462571541</v>
+        <v>0.39744343485759243</v>
       </c>
       <c r="AK44">
-        <v>0.71528436186167887</v>
+        <v>0.71164964652699658</v>
       </c>
       <c r="AL44">
-        <v>0.18829054445010374</v>
+        <v>0.10019661444676768</v>
       </c>
       <c r="AM44">
-        <v>4.3944931470645212</v>
+        <v>4.2316894697728538</v>
       </c>
       <c r="AN44">
-        <v>4.53125</v>
+        <v>3.7124999999999999</v>
       </c>
       <c r="AO44">
-        <v>7.375</v>
+        <v>6.3</v>
       </c>
       <c r="AP44">
-        <v>0.234375</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="AQ44">
-        <v>11.3125</v>
+        <v>11.393750000000001</v>
       </c>
       <c r="AR44">
         <v>31</v>
@@ -6667,16 +6667,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>143.91958295555617</v>
+        <v>143.91958295555614</v>
       </c>
       <c r="H45">
-        <v>145.56094420852045</v>
+        <v>145.56094420852043</v>
       </c>
       <c r="I45">
         <v>143.77199358147433</v>
       </c>
       <c r="J45">
-        <v>143.77199358015804</v>
+        <v>143.77199358015807</v>
       </c>
       <c r="K45">
         <v>3.9922777555561595</v>
@@ -6754,28 +6754,28 @@
         <v>2</v>
       </c>
       <c r="AJ45">
-        <v>0.6479773480429073</v>
+        <v>0.45845928044244344</v>
       </c>
       <c r="AK45">
-        <v>0.79561406997525164</v>
+        <v>0.69334509812600464</v>
       </c>
       <c r="AL45">
-        <v>0.18594368828156371</v>
+        <v>0.11174881975202204</v>
       </c>
       <c r="AM45">
-        <v>5.1258218968063254</v>
+        <v>4.0587294729546084</v>
       </c>
       <c r="AN45">
-        <v>5.890625</v>
+        <v>3.96875</v>
       </c>
       <c r="AO45">
-        <v>7.578125</v>
+        <v>5.9375</v>
       </c>
       <c r="AP45">
-        <v>0.328125</v>
+        <v>0.43125000000000002</v>
       </c>
       <c r="AQ45">
-        <v>11.6875</v>
+        <v>9.9828124999999996</v>
       </c>
       <c r="AR45">
         <v>32</v>
@@ -6807,16 +6807,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>145.89277942683276</v>
+        <v>145.89277942683273</v>
       </c>
       <c r="H46">
-        <v>147.41930896012366</v>
+        <v>147.41930896012363</v>
       </c>
       <c r="I46">
         <v>145.68196351193862</v>
       </c>
       <c r="J46">
-        <v>145.68196351075892</v>
+        <v>145.68196351075895</v>
       </c>
       <c r="K46">
         <v>3.9832029268327744</v>
@@ -6894,28 +6894,28 @@
         <v>2</v>
       </c>
       <c r="AJ46">
-        <v>0.63798789398124567</v>
+        <v>0.45343823499884695</v>
       </c>
       <c r="AK46">
-        <v>1.018537180847447</v>
+        <v>1.0076485264982069</v>
       </c>
       <c r="AL46">
-        <v>0.19927846280760592</v>
+        <v>0.10618357246204588</v>
       </c>
       <c r="AM46">
-        <v>5.2957385171794877</v>
+        <v>4.0452577589737819</v>
       </c>
       <c r="AN46">
-        <v>5.390625</v>
+        <v>4.2703125000000002</v>
       </c>
       <c r="AO46">
-        <v>10.703125</v>
+        <v>9.7937499999999993</v>
       </c>
       <c r="AP46">
-        <v>0.546875</v>
+        <v>0.4453125</v>
       </c>
       <c r="AQ46">
-        <v>11.4375</v>
+        <v>10.1171875</v>
       </c>
       <c r="AR46">
         <v>32</v>
@@ -6950,13 +6950,13 @@
         <v>147.82405013043964</v>
       </c>
       <c r="H47">
-        <v>149.22923313933228</v>
+        <v>149.22923313933231</v>
       </c>
       <c r="I47">
         <v>147.54352474844177</v>
       </c>
       <c r="J47">
-        <v>147.54352502751826</v>
+        <v>147.54352502751823</v>
       </c>
       <c r="K47">
         <v>4.1312673304396412</v>
@@ -7034,28 +7034,28 @@
         <v>2</v>
       </c>
       <c r="AJ47">
-        <v>0.65453969288482727</v>
+        <v>0.39258689765175642</v>
       </c>
       <c r="AK47">
-        <v>0.93642223268548086</v>
+        <v>0.74128595470426517</v>
       </c>
       <c r="AL47">
-        <v>0.18334761696433496</v>
+        <v>0.10438514364561673</v>
       </c>
       <c r="AM47">
-        <v>4.446859760830435</v>
+        <v>4.4935693284028968</v>
       </c>
       <c r="AN47">
-        <v>4.515625</v>
+        <v>3.6437499999999998</v>
       </c>
       <c r="AO47">
-        <v>6.828125</v>
+        <v>6.8093750000000002</v>
       </c>
       <c r="AP47">
-        <v>0.1875</v>
+        <v>0.34531250000000002</v>
       </c>
       <c r="AQ47">
-        <v>11.234375</v>
+        <v>10.959375</v>
       </c>
       <c r="AR47">
         <v>31</v>
@@ -7087,16 +7087,16 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>149.70951188761467</v>
+        <v>149.70951188761464</v>
       </c>
       <c r="H48">
-        <v>150.9927662297651</v>
+        <v>150.99276622976507</v>
       </c>
       <c r="I48">
-        <v>149.35856464599044</v>
+        <v>149.35856464599047</v>
       </c>
       <c r="J48">
-        <v>149.35856472579241</v>
+        <v>149.35856472579238</v>
       </c>
       <c r="K48">
         <v>4.4791960876146675</v>
@@ -7174,28 +7174,28 @@
         <v>2</v>
       </c>
       <c r="AJ48">
-        <v>0.56413553455206067</v>
+        <v>0.44081895530052345</v>
       </c>
       <c r="AK48">
-        <v>0.8242786231777145</v>
+        <v>0.68622056676920784</v>
       </c>
       <c r="AL48">
-        <v>0.11118716218036634</v>
+        <v>9.6542215815948351E-2</v>
       </c>
       <c r="AM48">
-        <v>4.1766200909106068</v>
+        <v>4.1706190981587188</v>
       </c>
       <c r="AN48">
-        <v>5.65625</v>
+        <v>3.921875</v>
       </c>
       <c r="AO48">
-        <v>7.46875</v>
+        <v>6.15625</v>
       </c>
       <c r="AP48">
-        <v>0.4375</v>
+        <v>0.31874999999999998</v>
       </c>
       <c r="AQ48">
-        <v>10.609375</v>
+        <v>10.284375000000001</v>
       </c>
       <c r="AR48">
         <v>32</v>
@@ -7227,16 +7227,16 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>151.55087460531797</v>
+        <v>151.55087460531794</v>
       </c>
       <c r="H49">
-        <v>152.71041003834932</v>
+        <v>152.71041003834935</v>
       </c>
       <c r="I49">
-        <v>151.13023968102362</v>
+        <v>151.1302396810236</v>
       </c>
       <c r="J49">
-        <v>151.1302397822252</v>
+        <v>151.13023978222517</v>
       </c>
       <c r="K49">
         <v>4.5945552053179597</v>
@@ -7314,28 +7314,28 @@
         <v>2</v>
       </c>
       <c r="AJ49">
-        <v>0.54843850832705754</v>
+        <v>0.42024984468100185</v>
       </c>
       <c r="AK49">
-        <v>0.78533594971819765</v>
+        <v>0.62674148920849693</v>
       </c>
       <c r="AL49">
-        <v>0.11180458709828892</v>
+        <v>0.11137817104943681</v>
       </c>
       <c r="AM49">
-        <v>4.7192714835004814</v>
+        <v>4.4079853369885011</v>
       </c>
       <c r="AN49">
-        <v>4.015625</v>
+        <v>3.8203125</v>
       </c>
       <c r="AO49">
-        <v>6.90625</v>
+        <v>5.5093750000000004</v>
       </c>
       <c r="AP49">
-        <v>0.703125</v>
+        <v>0.33906249999999999</v>
       </c>
       <c r="AQ49">
-        <v>12.78125</v>
+        <v>11.0796875</v>
       </c>
       <c r="AR49">
         <v>31</v>
@@ -7370,10 +7370,10 @@
         <v>153.35060873100954</v>
       </c>
       <c r="H50">
-        <v>154.38047854405119</v>
+        <v>154.38047854405116</v>
       </c>
       <c r="I50">
-        <v>152.85838516719247</v>
+        <v>152.85838516719244</v>
       </c>
       <c r="J50">
         <v>152.85838517449272</v>
@@ -7454,28 +7454,28 @@
         <v>2</v>
       </c>
       <c r="AJ50">
-        <v>0.58156840683202327</v>
+        <v>0.48684938018338064</v>
       </c>
       <c r="AK50">
-        <v>0.84150750467959978</v>
+        <v>0.75888140813149896</v>
       </c>
       <c r="AL50">
-        <v>0.19662433751108158</v>
+        <v>0.11872045370788224</v>
       </c>
       <c r="AM50">
-        <v>4.1728151497151185</v>
+        <v>4.4182778627207782</v>
       </c>
       <c r="AN50">
-        <v>5.421875</v>
+        <v>4.5843749999999996</v>
       </c>
       <c r="AO50">
-        <v>7.859375</v>
+        <v>6.875</v>
       </c>
       <c r="AP50">
-        <v>0.25</v>
+        <v>0.31093749999999998</v>
       </c>
       <c r="AQ50">
-        <v>9.890625</v>
+        <v>10.676562499999999</v>
       </c>
       <c r="AR50">
         <v>33</v>
@@ -7507,16 +7507,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>155.11098444241324</v>
+        <v>155.11098444241321</v>
       </c>
       <c r="H51">
-        <v>156.00174593036044</v>
+        <v>156.00174593036041</v>
       </c>
       <c r="I51">
-        <v>154.54277521976263</v>
+        <v>154.54277521976266</v>
       </c>
       <c r="J51">
-        <v>154.54277521783692</v>
+        <v>154.54277521783689</v>
       </c>
       <c r="K51">
         <v>4.4977928424132472</v>
@@ -7594,28 +7594,28 @@
         <v>2</v>
       </c>
       <c r="AJ51">
-        <v>0.72781824806561579</v>
+        <v>0.44950607436003287</v>
       </c>
       <c r="AK51">
-        <v>0.87659680517084548</v>
+        <v>0.72235778889894964</v>
       </c>
       <c r="AL51">
-        <v>0.19867226379728192</v>
+        <v>0.11647106255514746</v>
       </c>
       <c r="AM51">
-        <v>4.7932922315436457</v>
+        <v>4.4112581175626087</v>
       </c>
       <c r="AN51">
-        <v>5.328125</v>
+        <v>4.1921875000000002</v>
       </c>
       <c r="AO51">
-        <v>7.109375</v>
+        <v>6.734375</v>
       </c>
       <c r="AP51">
-        <v>0.4375</v>
+        <v>0.31406250000000002</v>
       </c>
       <c r="AQ51">
-        <v>11.5</v>
+        <v>10.9046875</v>
       </c>
       <c r="AR51">
         <v>31</v>
@@ -7650,13 +7650,13 @@
         <v>156.83222541711575</v>
       </c>
       <c r="H52">
-        <v>157.57220888487012</v>
+        <v>157.57220888487015</v>
       </c>
       <c r="I52">
         <v>156.18217331635898</v>
       </c>
       <c r="J52">
-        <v>156.18217331719956</v>
+        <v>156.18217331719958</v>
       </c>
       <c r="K52">
         <v>4.3109888171157422</v>
@@ -7734,28 +7734,28 @@
         <v>2</v>
       </c>
       <c r="AJ52">
-        <v>0.6932995444205956</v>
+        <v>0.49854547005767252</v>
       </c>
       <c r="AK52">
-        <v>0.90403099890050254</v>
+        <v>0.77815613496411062</v>
       </c>
       <c r="AL52">
-        <v>0.18905935875049876</v>
+        <v>0.13615803824327397</v>
       </c>
       <c r="AM52">
-        <v>5.5963692848904412</v>
+        <v>4.5710942123185854</v>
       </c>
       <c r="AN52">
-        <v>5.890625</v>
+        <v>4.2609374999999998</v>
       </c>
       <c r="AO52">
-        <v>8.921875</v>
+        <v>7.3156249999999998</v>
       </c>
       <c r="AP52">
-        <v>0.59375</v>
+        <v>0.27187499999999998</v>
       </c>
       <c r="AQ52">
-        <v>13.265625</v>
+        <v>11.301562499999999</v>
       </c>
       <c r="AR52">
         <v>31</v>
@@ -7787,13 +7787,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>158.51374806499058</v>
+        <v>158.51374806499055</v>
       </c>
       <c r="H53">
-        <v>159.08807639649569</v>
+        <v>159.08807639649567</v>
       </c>
       <c r="I53">
-        <v>157.77482122789104</v>
+        <v>157.77482122789107</v>
       </c>
       <c r="J53">
         <v>157.77482151801999</v>
@@ -7874,28 +7874,28 @@
         <v>2</v>
       </c>
       <c r="AJ53">
-        <v>0.72471027536189114</v>
+        <v>0.46486708318138215</v>
       </c>
       <c r="AK53">
-        <v>1.001965496050405</v>
+        <v>0.75911564553847177</v>
       </c>
       <c r="AL53">
-        <v>8.610303202142032E-2</v>
+        <v>9.9595833826473162E-2</v>
       </c>
       <c r="AM53">
-        <v>4.7374548878884646</v>
+        <v>4.2015410338840784</v>
       </c>
       <c r="AN53">
-        <v>6.640625</v>
+        <v>4.265625</v>
       </c>
       <c r="AO53">
-        <v>8.5625</v>
+        <v>6.8937499999999998</v>
       </c>
       <c r="AP53">
-        <v>0.1875</v>
+        <v>0.42656250000000001</v>
       </c>
       <c r="AQ53">
-        <v>11.734375</v>
+        <v>10.364062499999999</v>
       </c>
       <c r="AR53">
         <v>34</v>
@@ -7927,13 +7927,13 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>160.15371038873297</v>
+        <v>160.153710388733</v>
       </c>
       <c r="H54">
         <v>160.54503627200799</v>
       </c>
       <c r="I54">
-        <v>159.31824445631094</v>
+        <v>159.31824445631091</v>
       </c>
       <c r="J54">
         <v>159.31824447676266</v>
@@ -8014,28 +8014,28 @@
         <v>2</v>
       </c>
       <c r="AJ54">
-        <v>0.85397307321729377</v>
+        <v>0.60009189239640937</v>
       </c>
       <c r="AK54">
-        <v>0.95229662825054173</v>
+        <v>0.7761190104359611</v>
       </c>
       <c r="AL54">
-        <v>0.10660987854209458</v>
+        <v>0.10708565750533153</v>
       </c>
       <c r="AM54">
-        <v>4.3966084287963136</v>
+        <v>4.5178121783565661</v>
       </c>
       <c r="AN54">
-        <v>8</v>
+        <v>5.4874999999999998</v>
       </c>
       <c r="AO54">
-        <v>7.8125</v>
+        <v>7.0203125000000002</v>
       </c>
       <c r="AP54">
-        <v>0.578125</v>
+        <v>0.484375</v>
       </c>
       <c r="AQ54">
-        <v>13.5625</v>
+        <v>10.9546875</v>
       </c>
       <c r="AR54">
         <v>38</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>161.75286647535145</v>
+        <v>161.75286647535148</v>
       </c>
       <c r="H55">
-        <v>161.94386736977998</v>
+        <v>161.94386736978001</v>
       </c>
       <c r="I55">
-        <v>160.81045411381783</v>
+        <v>160.8104541138178</v>
       </c>
       <c r="J55">
         <v>160.81045412735625</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>1.0000000009204804</v>
+        <v>1.0000000009204801</v>
       </c>
       <c r="AF55">
         <v>1.990871911772274E-10</v>
@@ -8154,28 +8154,28 @@
         <v>2</v>
       </c>
       <c r="AJ55">
-        <v>0.74438800842135511</v>
+        <v>0.61449763725885465</v>
       </c>
       <c r="AK55">
-        <v>1.1768814941875458</v>
+        <v>1.2502781950088155</v>
       </c>
       <c r="AL55">
-        <v>0.18481243753584273</v>
+        <v>8.3861225482130375E-2</v>
       </c>
       <c r="AM55">
-        <v>4.9746413162152141</v>
+        <v>4.3916477028344234</v>
       </c>
       <c r="AN55">
-        <v>5.90625</v>
+        <v>5.5890624999999998</v>
       </c>
       <c r="AO55">
-        <v>10.53125</v>
+        <v>11.715624999999999</v>
       </c>
       <c r="AP55">
-        <v>0.578125</v>
+        <v>0.23906250000000001</v>
       </c>
       <c r="AQ55">
-        <v>11.65625</v>
+        <v>10.925000000000001</v>
       </c>
       <c r="AR55">
         <v>37</v>
@@ -8207,16 +8207,16 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>163.30455625974071</v>
+        <v>163.30455625974074</v>
       </c>
       <c r="H56">
-        <v>163.28627892699984</v>
+        <v>163.28627892699981</v>
       </c>
       <c r="I56">
-        <v>162.24390235361949</v>
+        <v>162.24390235361946</v>
       </c>
       <c r="J56">
-        <v>162.24390293654147</v>
+        <v>162.24390293654145</v>
       </c>
       <c r="K56">
         <v>5.1066976597407177</v>
@@ -8294,28 +8294,28 @@
         <v>2</v>
       </c>
       <c r="AJ56">
-        <v>0.69249320351479959</v>
+        <v>0.57203953329567825</v>
       </c>
       <c r="AK56">
-        <v>0.85248483860993751</v>
+        <v>0.74739357561493325</v>
       </c>
       <c r="AL56">
-        <v>0.13221681525491791</v>
+        <v>0.11213470366867165</v>
       </c>
       <c r="AM56">
-        <v>4.4542441628487888</v>
+        <v>4.4289177834078579</v>
       </c>
       <c r="AN56">
-        <v>5.453125</v>
+        <v>5.1015625</v>
       </c>
       <c r="AO56">
-        <v>7.0625</v>
+        <v>6.6281249999999998</v>
       </c>
       <c r="AP56">
-        <v>0.625</v>
+        <v>0.2890625</v>
       </c>
       <c r="AQ56">
-        <v>9.625</v>
+        <v>10.440625000000001</v>
       </c>
       <c r="AR56">
         <v>33</v>
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>164.79925890040232</v>
+        <v>164.79925890040229</v>
       </c>
       <c r="H57">
-        <v>164.57410827572727</v>
+        <v>164.57410827572724</v>
       </c>
       <c r="I57">
-        <v>163.6170917074061</v>
+        <v>163.61709170740613</v>
       </c>
       <c r="J57">
         <v>163.61709245917515</v>
@@ -8434,28 +8434,28 @@
         <v>2</v>
       </c>
       <c r="AJ57">
-        <v>0.78264878817931172</v>
+        <v>0.50742881867433109</v>
       </c>
       <c r="AK57">
-        <v>0.88632774261752245</v>
+        <v>0.81857146935140013</v>
       </c>
       <c r="AL57">
-        <v>0.12428202302401574</v>
+        <v>8.8101329889854224E-2</v>
       </c>
       <c r="AM57">
-        <v>5.0000654310042894</v>
+        <v>4.5537721908911388</v>
       </c>
       <c r="AN57">
-        <v>6.65625</v>
+        <v>4.9578125000000002</v>
       </c>
       <c r="AO57">
-        <v>9.03125</v>
+        <v>7.3265624999999996</v>
       </c>
       <c r="AP57">
-        <v>0.453125</v>
+        <v>0.35</v>
       </c>
       <c r="AQ57">
-        <v>12.15625</v>
+        <v>11.332812499999999</v>
       </c>
       <c r="AR57">
         <v>33</v>
@@ -8487,13 +8487,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>166.22926347262762</v>
+        <v>166.22926347262765</v>
       </c>
       <c r="H58">
-        <v>165.81216000930107</v>
+        <v>165.8121600093011</v>
       </c>
       <c r="I58">
-        <v>164.92860469451367</v>
+        <v>164.92860469451369</v>
       </c>
       <c r="J58">
         <v>164.92860471116293</v>
@@ -8574,28 +8574,28 @@
         <v>2</v>
       </c>
       <c r="AJ58">
-        <v>0.76633722369834001</v>
+        <v>0.5043117580250287</v>
       </c>
       <c r="AK58">
-        <v>0.87798977993372229</v>
+        <v>0.72490967121766581</v>
       </c>
       <c r="AL58">
-        <v>0.20650666434023096</v>
+        <v>0.12078333376633417</v>
       </c>
       <c r="AM58">
-        <v>5.1204244804329226</v>
+        <v>4.6398938089542643</v>
       </c>
       <c r="AN58">
-        <v>5.75</v>
+        <v>4.7374999999999998</v>
       </c>
       <c r="AO58">
-        <v>6.75</v>
+        <v>6.3531250000000004</v>
       </c>
       <c r="AP58">
-        <v>0.3125</v>
+        <v>0.37656250000000002</v>
       </c>
       <c r="AQ58">
-        <v>10.03125</v>
+        <v>10.934374999999999</v>
       </c>
       <c r="AR58">
         <v>32</v>
@@ -8627,16 +8627,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>167.60218043615095</v>
+        <v>167.60218043615097</v>
       </c>
       <c r="H59">
-        <v>167.0049137171296</v>
+        <v>167.00491371712957</v>
       </c>
       <c r="I59">
         <v>166.17680355973451</v>
       </c>
       <c r="J59">
-        <v>166.17680354085232</v>
+        <v>166.17680354085229</v>
       </c>
       <c r="K59">
         <v>5.5016747361509317</v>
@@ -8714,28 +8714,28 @@
         <v>2</v>
       </c>
       <c r="AJ59">
-        <v>0.62915919876527848</v>
+        <v>0.5181940850804917</v>
       </c>
       <c r="AK59">
-        <v>0.64842125250337734</v>
+        <v>0.70948672724187778</v>
       </c>
       <c r="AL59">
-        <v>0.10331972539505573</v>
+        <v>0.10311949828355269</v>
       </c>
       <c r="AM59">
-        <v>5.1827696430931161</v>
+        <v>4.6850549927079452</v>
       </c>
       <c r="AN59">
-        <v>5.609375</v>
+        <v>5.328125</v>
       </c>
       <c r="AO59">
-        <v>6.828125</v>
+        <v>6.1656250000000004</v>
       </c>
       <c r="AP59">
-        <v>0.34375</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="AQ59">
-        <v>11.296875</v>
+        <v>10.99375</v>
       </c>
       <c r="AR59">
         <v>33</v>
@@ -8767,16 +8767,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>168.91690672800854</v>
+        <v>168.91690672800857</v>
       </c>
       <c r="H60">
-        <v>168.15062348002431</v>
+        <v>168.15062348002428</v>
       </c>
       <c r="I60">
-        <v>167.36239799143655</v>
+        <v>167.36239799143658</v>
       </c>
       <c r="J60">
-        <v>167.36239798711668</v>
+        <v>167.36239798711671</v>
       </c>
       <c r="K60">
         <v>5.5457462280085394</v>
@@ -8854,28 +8854,28 @@
         <v>2</v>
       </c>
       <c r="AJ60">
-        <v>0.79105571000978903</v>
+        <v>0.47678175828482916</v>
       </c>
       <c r="AK60">
-        <v>0.84270482791004386</v>
+        <v>0.70636238576395927</v>
       </c>
       <c r="AL60">
-        <v>0.10027910813692271</v>
+        <v>0.10036423387561075</v>
       </c>
       <c r="AM60">
-        <v>5.1079037445778868</v>
+        <v>4.8756655783912715</v>
       </c>
       <c r="AN60">
-        <v>5.359375</v>
+        <v>4.3640625000000002</v>
       </c>
       <c r="AO60">
-        <v>6.484375</v>
+        <v>6.4749999999999996</v>
       </c>
       <c r="AP60">
-        <v>0.25</v>
+        <v>0.31093749999999998</v>
       </c>
       <c r="AQ60">
-        <v>12.625</v>
+        <v>11.557812500000001</v>
       </c>
       <c r="AR60">
         <v>33</v>
@@ -8907,13 +8907,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>170.16749832923742</v>
+        <v>170.16749832923739</v>
       </c>
       <c r="H61">
-        <v>169.24799517768173</v>
+        <v>169.24799517768176</v>
       </c>
       <c r="I61">
-        <v>168.48898253401202</v>
+        <v>168.488982534012</v>
       </c>
       <c r="J61">
         <v>168.48898257353267</v>
@@ -8994,28 +8994,28 @@
         <v>2</v>
       </c>
       <c r="AJ61">
-        <v>0.74229197110258938</v>
+        <v>0.46832358440003885</v>
       </c>
       <c r="AK61">
-        <v>0.9034552702108033</v>
+        <v>0.72898632583407985</v>
       </c>
       <c r="AL61">
-        <v>0.14369097578154769</v>
+        <v>9.5784464379588402E-2</v>
       </c>
       <c r="AM61">
-        <v>6.4797741219095073</v>
+        <v>4.7545976508262147</v>
       </c>
       <c r="AN61">
-        <v>6.984375</v>
+        <v>4.3109374999999996</v>
       </c>
       <c r="AO61">
-        <v>8.390625</v>
+        <v>6.2453124999999998</v>
       </c>
       <c r="AP61">
-        <v>0.140625</v>
+        <v>0.23281250000000001</v>
       </c>
       <c r="AQ61">
-        <v>12.0625</v>
+        <v>11.317187499999999</v>
       </c>
       <c r="AR61">
         <v>29</v>
@@ -9056,7 +9056,7 @@
         <v>169.55530882209993</v>
       </c>
       <c r="J62">
-        <v>169.55530881631566</v>
+        <v>169.55530881631563</v>
       </c>
       <c r="K62">
         <v>5.614448209028069</v>
@@ -9134,28 +9134,28 @@
         <v>2</v>
       </c>
       <c r="AJ62">
-        <v>0.70971695317321126</v>
+        <v>0.46257702202562906</v>
       </c>
       <c r="AK62">
-        <v>0.81376668330239255</v>
+        <v>0.70645815913068821</v>
       </c>
       <c r="AL62">
-        <v>0.17852849520236783</v>
+        <v>9.6148666181064255E-2</v>
       </c>
       <c r="AM62">
-        <v>5.8218496575135958</v>
+        <v>4.7868997045009953</v>
       </c>
       <c r="AN62">
-        <v>6.328125</v>
+        <v>3.8578125000000001</v>
       </c>
       <c r="AO62">
-        <v>6.984375</v>
+        <v>6.109375</v>
       </c>
       <c r="AP62">
-        <v>0.515625</v>
+        <v>0.29843750000000002</v>
       </c>
       <c r="AQ62">
-        <v>12.640625</v>
+        <v>11.34375</v>
       </c>
       <c r="AR62">
         <v>28</v>
@@ -9187,16 +9187,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>172.40330069782419</v>
+        <v>172.40330069782422</v>
       </c>
       <c r="H63">
-        <v>171.27998260311989</v>
+        <v>171.27998260311986</v>
       </c>
       <c r="I63">
-        <v>170.55907225728362</v>
+        <v>170.55907225728359</v>
       </c>
       <c r="J63">
-        <v>170.55907232960394</v>
+        <v>170.55907232960391</v>
       </c>
       <c r="K63">
         <v>5.6054697978241848</v>
@@ -9274,28 +9274,28 @@
         <v>2</v>
       </c>
       <c r="AJ63">
-        <v>0.63877306603271289</v>
+        <v>0.430481654075965</v>
       </c>
       <c r="AK63">
-        <v>1.0850259863723897</v>
+        <v>0.98158595050255337</v>
       </c>
       <c r="AL63">
-        <v>0.14454767290142884</v>
+        <v>0.11814398528182099</v>
       </c>
       <c r="AM63">
-        <v>6.1794984136188864</v>
+        <v>4.4474324815405337</v>
       </c>
       <c r="AN63">
-        <v>5.15625</v>
+        <v>4.2265625</v>
       </c>
       <c r="AO63">
-        <v>9.171875</v>
+        <v>9.2296875000000007</v>
       </c>
       <c r="AP63">
-        <v>0.390625</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="AQ63">
-        <v>13.375</v>
+        <v>10.7828125</v>
       </c>
       <c r="AR63">
         <v>26</v>
@@ -9330,13 +9330,13 @@
         <v>173.38843705921087</v>
       </c>
       <c r="H64">
-        <v>172.20992560607999</v>
+        <v>172.20992560608002</v>
       </c>
       <c r="I64">
-        <v>171.50091596654391</v>
+        <v>171.50091596654394</v>
       </c>
       <c r="J64">
-        <v>171.50091602413121</v>
+        <v>171.50091602413119</v>
       </c>
       <c r="K64">
         <v>5.6052776592108842</v>
@@ -9414,28 +9414,28 @@
         <v>2</v>
       </c>
       <c r="AJ64">
-        <v>0.62206057628036282</v>
+        <v>0.41066124998676939</v>
       </c>
       <c r="AK64">
-        <v>0.85278248553140878</v>
+        <v>0.6990407588483718</v>
       </c>
       <c r="AL64">
-        <v>8.4192061807922797E-2</v>
+        <v>9.398982031107421E-2</v>
       </c>
       <c r="AM64">
-        <v>4.2014736088534566</v>
+        <v>4.6095626467191213</v>
       </c>
       <c r="AN64">
-        <v>5</v>
+        <v>4.1312499999999996</v>
       </c>
       <c r="AO64">
-        <v>5.25</v>
+        <v>6.4703125000000004</v>
       </c>
       <c r="AP64">
-        <v>0.3125</v>
+        <v>0.26718750000000002</v>
       </c>
       <c r="AQ64">
-        <v>10.078125</v>
+        <v>10.887499999999999</v>
       </c>
       <c r="AR64">
         <v>26</v>
@@ -9473,7 +9473,7 @@
         <v>173.07780364528389</v>
       </c>
       <c r="I65">
-        <v>172.38020932946631</v>
+        <v>172.38020932946628</v>
       </c>
       <c r="J65">
         <v>172.38020932409151</v>
@@ -9554,28 +9554,28 @@
         <v>2</v>
       </c>
       <c r="AJ65">
-        <v>0.64880966890628866</v>
+        <v>0.49987378827927725</v>
       </c>
       <c r="AK65">
-        <v>0.70357798541786676</v>
+        <v>0.73071470473994782</v>
       </c>
       <c r="AL65">
-        <v>0.12720172122030107</v>
+        <v>8.8926084193962571E-2</v>
       </c>
       <c r="AM65">
-        <v>5.3421409666083779</v>
+        <v>4.8978472161415008</v>
       </c>
       <c r="AN65">
-        <v>7.28125</v>
+        <v>4.8312499999999998</v>
       </c>
       <c r="AO65">
-        <v>6.265625</v>
+        <v>6.1531250000000002</v>
       </c>
       <c r="AP65">
-        <v>0.1875</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AQ65">
-        <v>11.5</v>
+        <v>11.3046875</v>
       </c>
       <c r="AR65">
         <v>32</v>
@@ -9607,13 +9607,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>175.14637409400561</v>
+        <v>175.14637409400558</v>
       </c>
       <c r="H66">
-        <v>173.87676773542245</v>
+        <v>173.87676773542242</v>
       </c>
       <c r="I66">
-        <v>173.20157809942759</v>
+        <v>173.20157809942756</v>
       </c>
       <c r="J66">
         <v>173.20157808950285</v>
@@ -9694,28 +9694,28 @@
         <v>2</v>
       </c>
       <c r="AJ66">
-        <v>0.96412424449641865</v>
+        <v>0.60771010883716181</v>
       </c>
       <c r="AK66">
-        <v>0.81582455253532316</v>
+        <v>0.69342980591620251</v>
       </c>
       <c r="AL66">
-        <v>9.9328754873647604E-2</v>
+        <v>9.5621303255492632E-2</v>
       </c>
       <c r="AM66">
-        <v>5.1212074073028697</v>
+        <v>5.0887672210039394</v>
       </c>
       <c r="AN66">
-        <v>6.6875</v>
+        <v>5.796875</v>
       </c>
       <c r="AO66">
-        <v>5.40625</v>
+        <v>6.03125</v>
       </c>
       <c r="AP66">
-        <v>9.375E-2</v>
+        <v>0.30156250000000001</v>
       </c>
       <c r="AQ66">
-        <v>12.53125</v>
+        <v>11.815625000000001</v>
       </c>
       <c r="AR66">
         <v>37</v>
@@ -9747,13 +9747,13 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>175.94147507597711</v>
+        <v>175.94147507597708</v>
       </c>
       <c r="H67">
-        <v>174.60608293472768</v>
+        <v>174.60608293472771</v>
       </c>
       <c r="I67">
-        <v>173.96859537040254</v>
+        <v>173.96859537040251</v>
       </c>
       <c r="J67">
         <v>173.96859532906274</v>
@@ -9834,28 +9834,28 @@
         <v>2</v>
       </c>
       <c r="AJ67">
-        <v>0.77045873548810884</v>
+        <v>0.61885160484537527</v>
       </c>
       <c r="AK67">
-        <v>1.2429257537715843</v>
+        <v>0.87934175535966808</v>
       </c>
       <c r="AL67">
-        <v>0.16238114971255263</v>
+        <v>8.9316811304977872E-2</v>
       </c>
       <c r="AM67">
-        <v>5.5320483624928958</v>
+        <v>4.8629532195535479</v>
       </c>
       <c r="AN67">
-        <v>8.375</v>
+        <v>6.0578124999999998</v>
       </c>
       <c r="AO67">
-        <v>10.078125</v>
+        <v>7.8140625000000004</v>
       </c>
       <c r="AP67">
-        <v>0.5</v>
+        <v>0.328125</v>
       </c>
       <c r="AQ67">
-        <v>12.171875</v>
+        <v>11.1171875</v>
       </c>
       <c r="AR67">
         <v>37</v>
@@ -9893,10 +9893,10 @@
         <v>175.26214370891489</v>
       </c>
       <c r="I68">
-        <v>174.67938053812455</v>
+        <v>174.67938053812458</v>
       </c>
       <c r="J68">
-        <v>174.67938051712366</v>
+        <v>174.67938051712369</v>
       </c>
       <c r="K68">
         <v>5.5995237598036738</v>
@@ -9974,28 +9974,28 @@
         <v>2</v>
       </c>
       <c r="AJ68">
-        <v>0.86714747763478461</v>
+        <v>0.65069095705048818</v>
       </c>
       <c r="AK68">
-        <v>0.64010894903694537</v>
+        <v>0.66512646671009512</v>
       </c>
       <c r="AL68">
-        <v>0.18141355345520607</v>
+        <v>0.1146229188296661</v>
       </c>
       <c r="AM68">
-        <v>5.2025698989155131</v>
+        <v>4.9489459637427569</v>
       </c>
       <c r="AN68">
-        <v>7</v>
+        <v>6.234375</v>
       </c>
       <c r="AO68">
-        <v>6.671875</v>
+        <v>5.8578124999999996</v>
       </c>
       <c r="AP68">
-        <v>0.4375</v>
+        <v>0.3515625</v>
       </c>
       <c r="AQ68">
-        <v>10.953125</v>
+        <v>11.3046875</v>
       </c>
       <c r="AR68">
         <v>37</v>
@@ -10036,7 +10036,7 @@
         <v>175.33163989502194</v>
       </c>
       <c r="J69">
-        <v>175.33163991032137</v>
+        <v>175.3316399103214</v>
       </c>
       <c r="K69">
         <v>5.6239747294761457</v>
@@ -10114,28 +10114,28 @@
         <v>2</v>
       </c>
       <c r="AJ69">
-        <v>0.77737902641231538</v>
+        <v>0.68516042038927083</v>
       </c>
       <c r="AK69">
-        <v>0.70876980731210715</v>
+        <v>0.61984295220601082</v>
       </c>
       <c r="AL69">
-        <v>0.20189826890090026</v>
+        <v>0.10473180089531739</v>
       </c>
       <c r="AM69">
-        <v>5.4361666027324498</v>
+        <v>4.8654716806237257</v>
       </c>
       <c r="AN69">
-        <v>7.046875</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="AO69">
-        <v>6.15625</v>
+        <v>4.9734375000000002</v>
       </c>
       <c r="AP69">
-        <v>0.1875</v>
+        <v>0.26406249999999998</v>
       </c>
       <c r="AQ69">
-        <v>11.78125</v>
+        <v>11.2671875</v>
       </c>
       <c r="AR69">
         <v>35</v>
@@ -10170,13 +10170,13 @@
         <v>178.01399754199863</v>
       </c>
       <c r="H70">
-        <v>176.34286475252514</v>
+        <v>176.34286475252517</v>
       </c>
       <c r="I70">
         <v>175.92273938526748</v>
       </c>
       <c r="J70">
-        <v>175.92273921206279</v>
+        <v>175.92273921206282</v>
       </c>
       <c r="K70">
         <v>5.7709495419986467</v>
@@ -10254,28 +10254,28 @@
         <v>2</v>
       </c>
       <c r="AJ70">
-        <v>0.76840728105952039</v>
+        <v>0.52393035165760737</v>
       </c>
       <c r="AK70">
-        <v>0.68189434304064289</v>
+        <v>0.60698552205626</v>
       </c>
       <c r="AL70">
-        <v>0.20897123216844762</v>
+        <v>0.1158502676746926</v>
       </c>
       <c r="AM70">
-        <v>4.7473433087817387</v>
+        <v>5.1320084149700245</v>
       </c>
       <c r="AN70">
-        <v>5.546875</v>
+        <v>4.8687500000000004</v>
       </c>
       <c r="AO70">
-        <v>5.84375</v>
+        <v>5.3</v>
       </c>
       <c r="AP70">
-        <v>0.3125</v>
+        <v>0.44687500000000002</v>
       </c>
       <c r="AQ70">
-        <v>10.5625</v>
+        <v>11.5546875</v>
       </c>
       <c r="AR70">
         <v>30</v>
@@ -10307,16 +10307,16 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>178.58330182986703</v>
+        <v>178.583301829867</v>
       </c>
       <c r="H71">
-        <v>176.77333447835312</v>
+        <v>176.77333447835309</v>
       </c>
       <c r="I71">
         <v>176.44995186346594</v>
       </c>
       <c r="J71">
-        <v>176.44995185615755</v>
+        <v>176.44995185615753</v>
       </c>
       <c r="K71">
         <v>5.7744757298670208</v>
@@ -10394,28 +10394,28 @@
         <v>2</v>
       </c>
       <c r="AJ71">
-        <v>0.73441844025315384</v>
+        <v>0.58648460104747713</v>
       </c>
       <c r="AK71">
-        <v>0.72610806122802452</v>
+        <v>0.63810150629759599</v>
       </c>
       <c r="AL71">
-        <v>0.19987824701358783</v>
+        <v>0.10913102508614311</v>
       </c>
       <c r="AM71">
-        <v>6.292595263051882</v>
+        <v>5.2641440359589549</v>
       </c>
       <c r="AN71">
-        <v>6.1875</v>
+        <v>5.2562499999999996</v>
       </c>
       <c r="AO71">
-        <v>5.375</v>
+        <v>5.6390624999999996</v>
       </c>
       <c r="AP71">
-        <v>0.25</v>
+        <v>0.2890625</v>
       </c>
       <c r="AQ71">
-        <v>14.203125</v>
+        <v>12.364062499999999</v>
       </c>
       <c r="AR71">
         <v>32</v>
@@ -10447,16 +10447,16 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>179.08753048719137</v>
+        <v>179.08753048719134</v>
       </c>
       <c r="H72">
-        <v>177.13571087054282</v>
+        <v>177.13571087054285</v>
       </c>
       <c r="I72">
-        <v>176.9096833257039</v>
+        <v>176.90968332570392</v>
       </c>
       <c r="J72">
-        <v>176.90968332358045</v>
+        <v>176.90968332358042</v>
       </c>
       <c r="K72">
         <v>5.7537981871913644</v>
@@ -10534,28 +10534,28 @@
         <v>2</v>
       </c>
       <c r="AJ72">
-        <v>0.80653559510781359</v>
+        <v>0.49014525413459653</v>
       </c>
       <c r="AK72">
-        <v>0.79835607809126219</v>
+        <v>0.6732511658146173</v>
       </c>
       <c r="AL72">
-        <v>0.12059928385124326</v>
+        <v>0.1127857123841763</v>
       </c>
       <c r="AM72">
-        <v>4.8444980864638651</v>
+        <v>5.3177387285877087</v>
       </c>
       <c r="AN72">
-        <v>8.625</v>
+        <v>4.6843750000000002</v>
       </c>
       <c r="AO72">
-        <v>7.1875</v>
+        <v>5.8031249999999996</v>
       </c>
       <c r="AP72">
-        <v>0.34375</v>
+        <v>0.2421875</v>
       </c>
       <c r="AQ72">
-        <v>11.21875</v>
+        <v>12.271875</v>
       </c>
       <c r="AR72">
         <v>29</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>179.50994969440836</v>
+        <v>179.50994969440833</v>
       </c>
       <c r="H73">
         <v>177.43641914820159</v>
@@ -10596,7 +10596,7 @@
         <v>177.30039471357392</v>
       </c>
       <c r="J73">
-        <v>177.30039471511128</v>
+        <v>177.30039471511125</v>
       </c>
       <c r="K73">
         <v>5.7748389944083556</v>
@@ -10674,28 +10674,28 @@
         <v>2</v>
       </c>
       <c r="AJ73">
-        <v>0.66342355541813625</v>
+        <v>0.5769251296677087</v>
       </c>
       <c r="AK73">
-        <v>0.94859913502778248</v>
+        <v>0.95185287466037494</v>
       </c>
       <c r="AL73">
-        <v>0.15897136046453447</v>
+        <v>0.13189859313222208</v>
       </c>
       <c r="AM73">
-        <v>6.3404715137783585</v>
+        <v>5.4787727602070326</v>
       </c>
       <c r="AN73">
-        <v>6.40625</v>
+        <v>5.4375</v>
       </c>
       <c r="AO73">
-        <v>9.890625</v>
+        <v>7.9515624999999996</v>
       </c>
       <c r="AP73">
-        <v>0.421875</v>
+        <v>0.40468749999999998</v>
       </c>
       <c r="AQ73">
-        <v>13.765625</v>
+        <v>11.915625</v>
       </c>
       <c r="AR73">
         <v>33</v>
@@ -10727,13 +10727,13 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>179.85027849149185</v>
+        <v>179.85027849149182</v>
       </c>
       <c r="H74">
-        <v>177.6771700279279</v>
+        <v>177.67717002792787</v>
       </c>
       <c r="I74">
-        <v>177.62058924296559</v>
+        <v>177.62058924296562</v>
       </c>
       <c r="J74">
         <v>177.62058926913915</v>
@@ -10814,28 +10814,28 @@
         <v>2</v>
       </c>
       <c r="AJ74">
-        <v>0.93957093939677749</v>
+        <v>0.52268266781107176</v>
       </c>
       <c r="AK74">
-        <v>0.65449190259247902</v>
+        <v>0.64413933389078182</v>
       </c>
       <c r="AL74">
-        <v>0.11444941092851726</v>
+        <v>0.10734071102583667</v>
       </c>
       <c r="AM74">
-        <v>5.1765774324617322</v>
+        <v>5.5312586179191134</v>
       </c>
       <c r="AN74">
-        <v>7.890625</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="AO74">
-        <v>5.390625</v>
+        <v>5.3062500000000004</v>
       </c>
       <c r="AP74">
-        <v>0.46875</v>
+        <v>0.30781249999999999</v>
       </c>
       <c r="AQ74">
-        <v>11.953125</v>
+        <v>12.3125</v>
       </c>
       <c r="AR74">
         <v>32</v>
@@ -10867,10 +10867,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>180.12063080538624</v>
+        <v>180.12063080538627</v>
       </c>
       <c r="H75">
-        <v>177.85641182305642</v>
+        <v>177.85641182305645</v>
       </c>
       <c r="I75">
         <v>177.86996129194063</v>
@@ -10954,28 +10954,28 @@
         <v>2</v>
       </c>
       <c r="AJ75">
-        <v>0.73032226694053604</v>
+        <v>0.57964851238558757</v>
       </c>
       <c r="AK75">
-        <v>0.77715001789730409</v>
+        <v>0.66303975556943295</v>
       </c>
       <c r="AL75">
-        <v>0.14503840543359586</v>
+        <v>0.13183588819854658</v>
       </c>
       <c r="AM75">
-        <v>6.4750015074790204</v>
+        <v>5.2603373814098955</v>
       </c>
       <c r="AN75">
-        <v>5.5625</v>
+        <v>5.8546874999999998</v>
       </c>
       <c r="AO75">
-        <v>7.703125</v>
+        <v>5.9781250000000004</v>
       </c>
       <c r="AP75">
-        <v>0.84375</v>
+        <v>0.45</v>
       </c>
       <c r="AQ75">
-        <v>12.125</v>
+        <v>11.8109375</v>
       </c>
       <c r="AR75">
         <v>34</v>
@@ -11013,10 +11013,10 @@
         <v>177.97558445800723</v>
       </c>
       <c r="I76">
-        <v>178.05098894994771</v>
+        <v>178.05098894994768</v>
       </c>
       <c r="J76">
-        <v>178.05098885322258</v>
+        <v>178.05098885322261</v>
       </c>
       <c r="K76">
         <v>5.661492138063835</v>
@@ -11094,28 +11094,28 @@
         <v>2</v>
       </c>
       <c r="AJ76">
-        <v>0.98070330631845393</v>
+        <v>0.75165722243765354</v>
       </c>
       <c r="AK76">
-        <v>0.91550836682930337</v>
+        <v>0.95574237669980877</v>
       </c>
       <c r="AL76">
-        <v>0.12326238987384645</v>
+        <v>0.11711835067100693</v>
       </c>
       <c r="AM76">
-        <v>7.3320113490718422</v>
+        <v>5.7306043055677165</v>
       </c>
       <c r="AN76">
-        <v>6.484375</v>
+        <v>7.1078124999999996</v>
       </c>
       <c r="AO76">
-        <v>6.296875</v>
+        <v>8.53125</v>
       </c>
       <c r="AP76">
-        <v>0.125</v>
+        <v>0.29531249999999998</v>
       </c>
       <c r="AQ76">
-        <v>12.671875</v>
+        <v>12.770312499999999</v>
       </c>
       <c r="AR76">
         <v>40</v>
@@ -11147,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>180.49157757462382</v>
+        <v>180.49157757462379</v>
       </c>
       <c r="H77">
-        <v>178.04237332021131</v>
+        <v>178.04237332021128</v>
       </c>
       <c r="I77">
         <v>178.16378694490959</v>
@@ -11234,28 +11234,28 @@
         <v>2</v>
       </c>
       <c r="AJ77">
-        <v>0.97999671562017687</v>
+        <v>0.68250256512893637</v>
       </c>
       <c r="AK77">
-        <v>0.93286361997672707</v>
+        <v>0.64404381711713199</v>
       </c>
       <c r="AL77">
-        <v>0.14254368802497155</v>
+        <v>0.10073420902136362</v>
       </c>
       <c r="AM77">
-        <v>5.9436263787018229</v>
+        <v>6.0611123566566825</v>
       </c>
       <c r="AN77">
-        <v>10.09375</v>
+        <v>6.6749999999999998</v>
       </c>
       <c r="AO77">
-        <v>6.6875</v>
+        <v>5.4625000000000004</v>
       </c>
       <c r="AP77">
-        <v>0.859375</v>
+        <v>0.27812500000000001</v>
       </c>
       <c r="AQ77">
-        <v>11.578125</v>
+        <v>12.9625</v>
       </c>
       <c r="AR77">
         <v>36</v>
@@ -11287,16 +11287,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>180.59859979445778</v>
+        <v>180.59859979445781</v>
       </c>
       <c r="H78">
         <v>178.05309018261707</v>
       </c>
       <c r="I78">
-        <v>178.20901470303974</v>
+        <v>178.20901470303971</v>
       </c>
       <c r="J78">
-        <v>178.20901469910581</v>
+        <v>178.20901469910584</v>
       </c>
       <c r="K78">
         <v>5.644568994457785</v>
@@ -11374,28 +11374,28 @@
         <v>2</v>
       </c>
       <c r="AJ78">
-        <v>0.82708028897410601</v>
+        <v>0.61787363239898174</v>
       </c>
       <c r="AK78">
-        <v>0.75002630069780241</v>
+        <v>0.65958774472965831</v>
       </c>
       <c r="AL78">
-        <v>0.16955610836913862</v>
+        <v>9.1826868951820462E-2</v>
       </c>
       <c r="AM78">
-        <v>6.183830330991074</v>
+        <v>5.9733286248503346</v>
       </c>
       <c r="AN78">
-        <v>8.53125</v>
+        <v>6.2828125000000004</v>
       </c>
       <c r="AO78">
-        <v>5.65625</v>
+        <v>5.4109375000000002</v>
       </c>
       <c r="AP78">
-        <v>0.359375</v>
+        <v>0.19687499999999999</v>
       </c>
       <c r="AQ78">
-        <v>13.3125</v>
+        <v>12.578125</v>
       </c>
       <c r="AR78">
         <v>36</v>
@@ -11430,13 +11430,13 @@
         <v>180.64505292824171</v>
       </c>
       <c r="H79">
-        <v>177.99786680693853</v>
+        <v>177.9978668069385</v>
       </c>
       <c r="I79">
         <v>178.19017468628613</v>
       </c>
       <c r="J79">
-        <v>178.19017468879412</v>
+        <v>178.19017468879409</v>
       </c>
       <c r="K79">
         <v>5.7121120282417053</v>
@@ -11514,28 +11514,28 @@
         <v>2</v>
       </c>
       <c r="AJ79">
-        <v>0.9488813864188328</v>
+        <v>0.531507545279858</v>
       </c>
       <c r="AK79">
-        <v>0.69857123062889459</v>
+        <v>0.62458941098096488</v>
       </c>
       <c r="AL79">
-        <v>0.16578067527362347</v>
+        <v>0.10058609066652298</v>
       </c>
       <c r="AM79">
-        <v>6.9100237091168486</v>
+        <v>6.0497885191917193</v>
       </c>
       <c r="AN79">
-        <v>8.953125</v>
+        <v>5.4953124999999998</v>
       </c>
       <c r="AO79">
-        <v>6.03125</v>
+        <v>4.7359375000000004</v>
       </c>
       <c r="AP79">
-        <v>1.0625</v>
+        <v>0.30625000000000002</v>
       </c>
       <c r="AQ79">
-        <v>13.78125</v>
+        <v>12.9515625</v>
       </c>
       <c r="AR79">
         <v>33</v>
@@ -11573,10 +11573,10 @@
         <v>177.89338530295279</v>
       </c>
       <c r="I80">
-        <v>178.11073649973048</v>
+        <v>178.11073649973051</v>
       </c>
       <c r="J80">
-        <v>178.11073648232463</v>
+        <v>178.11073648232465</v>
       </c>
       <c r="K80">
         <v>5.7970316260313837</v>
@@ -11654,28 +11654,28 @@
         <v>2</v>
       </c>
       <c r="AJ80">
-        <v>0.83088523016959459</v>
+        <v>0.53043533902520934</v>
       </c>
       <c r="AK80">
-        <v>0.84656012531961766</v>
+        <v>0.65667188512841035</v>
       </c>
       <c r="AL80">
-        <v>0.17033871449886906</v>
+        <v>9.4812650167090201E-2</v>
       </c>
       <c r="AM80">
-        <v>6.6485877166760536</v>
+        <v>6.2491531305798969</v>
       </c>
       <c r="AN80">
-        <v>6.65625</v>
+        <v>5.3671875</v>
       </c>
       <c r="AO80">
-        <v>6.65625</v>
+        <v>5.3781249999999998</v>
       </c>
       <c r="AP80">
-        <v>0.65625</v>
+        <v>0.31874999999999998</v>
       </c>
       <c r="AQ80">
-        <v>13.34375</v>
+        <v>13.0015625</v>
       </c>
       <c r="AR80">
         <v>31</v>
@@ -11707,16 +11707,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>180.49763985676799</v>
+        <v>180.49763985676802</v>
       </c>
       <c r="H81">
-        <v>177.74430093597999</v>
+        <v>177.74430093597996</v>
       </c>
       <c r="I81">
-        <v>177.97157096892113</v>
+        <v>177.97157096892116</v>
       </c>
       <c r="J81">
-        <v>177.97157095858773</v>
+        <v>177.97157095858776</v>
       </c>
       <c r="K81">
         <v>5.8161419567679786</v>
@@ -11794,28 +11794,28 @@
         <v>2</v>
       </c>
       <c r="AJ81">
-        <v>0.92968989552849646</v>
+        <v>0.65045617438322245</v>
       </c>
       <c r="AK81">
-        <v>0.60472488828618243</v>
+        <v>0.50728384358470802</v>
       </c>
       <c r="AL81">
-        <v>9.3954752536092895E-2</v>
+        <v>0.11950363993319602</v>
       </c>
       <c r="AM81">
-        <v>7.0806931067795498</v>
+        <v>5.8292996259835137</v>
       </c>
       <c r="AN81">
-        <v>7.8125</v>
+        <v>6.6296875000000002</v>
       </c>
       <c r="AO81">
-        <v>3.90625</v>
+        <v>4.2546875000000002</v>
       </c>
       <c r="AP81">
-        <v>0.328125</v>
+        <v>0.47968749999999999</v>
       </c>
       <c r="AQ81">
-        <v>12.796875</v>
+        <v>12.854687500000001</v>
       </c>
       <c r="AR81">
         <v>36</v>
@@ -11847,16 +11847,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>180.32185479507581</v>
+        <v>180.32185479507578</v>
       </c>
       <c r="H82">
-        <v>177.53098165268727</v>
+        <v>177.5309816526873</v>
       </c>
       <c r="I82">
         <v>177.77205520724442</v>
       </c>
       <c r="J82">
-        <v>177.7720548500275</v>
+        <v>177.77205485002747</v>
       </c>
       <c r="K82">
         <v>5.865608995075803</v>
@@ -11934,28 +11934,28 @@
         <v>2</v>
       </c>
       <c r="AJ82">
-        <v>1.4073500186670806</v>
+        <v>0.83400448460553789</v>
       </c>
       <c r="AK82">
-        <v>0.68339925613928854</v>
+        <v>0.57481445914829687</v>
       </c>
       <c r="AL82">
-        <v>0.14933600360255411</v>
+        <v>9.419701922234977E-2</v>
       </c>
       <c r="AM82">
-        <v>8.9509745370756448</v>
+        <v>6.2793838045504859</v>
       </c>
       <c r="AN82">
-        <v>14.1875</v>
+        <v>8.7328124999999996</v>
       </c>
       <c r="AO82">
-        <v>5.453125</v>
+        <v>4.6671874999999998</v>
       </c>
       <c r="AP82">
-        <v>0.234375</v>
+        <v>0.30937500000000001</v>
       </c>
       <c r="AQ82">
-        <v>16.734375</v>
+        <v>13.7109375</v>
       </c>
       <c r="AR82">
         <v>62</v>
@@ -11990,13 +11990,13 @@
         <v>180.0935789234502</v>
       </c>
       <c r="H83">
-        <v>177.25838181652682</v>
+        <v>177.25838181652679</v>
       </c>
       <c r="I83">
-        <v>177.51291169403234</v>
+        <v>177.51291169403231</v>
       </c>
       <c r="J83">
-        <v>177.51291169785412</v>
+        <v>177.51291169785415</v>
       </c>
       <c r="K83">
         <v>5.8939824234501828</v>
@@ -12074,28 +12074,28 @@
         <v>2</v>
       </c>
       <c r="AJ83">
-        <v>1.0251328826719457</v>
+        <v>0.68252607546979782</v>
       </c>
       <c r="AK83">
-        <v>0.74855442384151838</v>
+        <v>0.61068443958628227</v>
       </c>
       <c r="AL83">
-        <v>0.10025890150324525</v>
+        <v>8.8013286389629547E-2</v>
       </c>
       <c r="AM83">
-        <v>8.2193244056363035</v>
+        <v>6.9484638574214888</v>
       </c>
       <c r="AN83">
-        <v>9.359375</v>
+        <v>6.6640625</v>
       </c>
       <c r="AO83">
-        <v>4.609375</v>
+        <v>5.1359374999999998</v>
       </c>
       <c r="AP83">
-        <v>0.125</v>
+        <v>0.24843750000000001</v>
       </c>
       <c r="AQ83">
-        <v>15.6875</v>
+        <v>13.667187500000001</v>
       </c>
       <c r="AR83">
         <v>41</v>
@@ -12130,13 +12130,13 @@
         <v>179.81414561613016</v>
       </c>
       <c r="H84">
-        <v>176.93440407337278</v>
+        <v>176.93440407337275</v>
       </c>
       <c r="I84">
-        <v>177.19592042584003</v>
+        <v>177.19592042584006</v>
       </c>
       <c r="J84">
-        <v>177.19592047104138</v>
+        <v>177.19592047104135</v>
       </c>
       <c r="K84">
         <v>5.9227828161301659</v>
@@ -12214,28 +12214,28 @@
         <v>2</v>
       </c>
       <c r="AJ84">
-        <v>0.81801841562030519</v>
+        <v>0.56938571937633775</v>
       </c>
       <c r="AK84">
-        <v>0.70640819709358049</v>
+        <v>0.63932689862039516</v>
       </c>
       <c r="AL84">
-        <v>0.17143628752179429</v>
+        <v>8.581251962536128E-2</v>
       </c>
       <c r="AM84">
-        <v>6.6497042133717876</v>
+        <v>6.2017846690125698</v>
       </c>
       <c r="AN84">
-        <v>5.421875</v>
+        <v>5.4671874999999996</v>
       </c>
       <c r="AO84">
-        <v>4.4375</v>
+        <v>4.9546875000000004</v>
       </c>
       <c r="AP84">
-        <v>0.34375</v>
+        <v>0.41562500000000002</v>
       </c>
       <c r="AQ84">
-        <v>12.921875</v>
+        <v>12.9515625</v>
       </c>
       <c r="AR84">
         <v>30</v>
@@ -12270,13 +12270,13 @@
         <v>179.48365438445896</v>
       </c>
       <c r="H85">
-        <v>176.55906322001493</v>
+        <v>176.55906322001491</v>
       </c>
       <c r="I85">
-        <v>176.82309500692662</v>
+        <v>176.82309500692665</v>
       </c>
       <c r="J85">
-        <v>176.82309502399551</v>
+        <v>176.82309502399548</v>
       </c>
       <c r="K85">
         <v>5.9090068844589609</v>
@@ -12342,7 +12342,7 @@
         <v>9.2625795922174348E-11</v>
       </c>
       <c r="AF85">
-        <v>1.2705336919792903E-10</v>
+        <v>1.2705336919792906E-10</v>
       </c>
       <c r="AG85">
         <v>7.7875622617185059E-10</v>
@@ -12354,28 +12354,28 @@
         <v>2</v>
       </c>
       <c r="AJ85">
-        <v>0.77166728462615164</v>
+        <v>0.57311879585999892</v>
       </c>
       <c r="AK85">
-        <v>0.7452020470923616</v>
+        <v>0.59217808072867306</v>
       </c>
       <c r="AL85">
-        <v>0.15925104593384798</v>
+        <v>0.11891376451875808</v>
       </c>
       <c r="AM85">
-        <v>7.9212297308219801</v>
+        <v>6.7891557991479177</v>
       </c>
       <c r="AN85">
-        <v>6.4375</v>
+        <v>5.4156250000000004</v>
       </c>
       <c r="AO85">
-        <v>4.484375</v>
+        <v>4.5046875000000002</v>
       </c>
       <c r="AP85">
-        <v>0.21875</v>
+        <v>0.24843750000000001</v>
       </c>
       <c r="AQ85">
-        <v>14.515625</v>
+        <v>13.9765625</v>
       </c>
       <c r="AR85">
         <v>28</v>
@@ -12407,13 +12407,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>179.09994933907848</v>
+        <v>179.09994933907845</v>
       </c>
       <c r="H86">
-        <v>176.12951223702936</v>
+        <v>176.12951223702933</v>
       </c>
       <c r="I86">
-        <v>176.39682628634711</v>
+        <v>176.39682628634708</v>
       </c>
       <c r="J86">
         <v>176.39682632779883</v>
@@ -12494,28 +12494,28 @@
         <v>2</v>
       </c>
       <c r="AJ86">
-        <v>0.69086416395213535</v>
+        <v>0.54668839368562927</v>
       </c>
       <c r="AK86">
-        <v>0.56127453181550513</v>
+        <v>0.51616250937767505</v>
       </c>
       <c r="AL86">
-        <v>0.18973515838793401</v>
+        <v>0.11156368784553865</v>
       </c>
       <c r="AM86">
-        <v>8.6216651035926759</v>
+        <v>6.7806087478353971</v>
       </c>
       <c r="AN86">
-        <v>5.234375</v>
+        <v>5.2453124999999998</v>
       </c>
       <c r="AO86">
-        <v>4.265625</v>
+        <v>3.9375</v>
       </c>
       <c r="AP86">
-        <v>0.234375</v>
+        <v>0.36093750000000002</v>
       </c>
       <c r="AQ86">
-        <v>16.140625</v>
+        <v>13.9203125</v>
       </c>
       <c r="AR86">
         <v>28</v>
@@ -12553,10 +12553,10 @@
         <v>175.64343195071092</v>
       </c>
       <c r="I87">
-        <v>175.91803790249463</v>
+        <v>175.91803790249466</v>
       </c>
       <c r="J87">
-        <v>175.9180379046083</v>
+        <v>175.91803790460833</v>
       </c>
       <c r="K87">
         <v>5.9404532230705058</v>
@@ -12634,28 +12634,28 @@
         <v>2</v>
       </c>
       <c r="AJ87">
-        <v>0.67743060143922551</v>
+        <v>0.53130156518570759</v>
       </c>
       <c r="AK87">
-        <v>0.6479404629179405</v>
+        <v>0.53660964206227701</v>
       </c>
       <c r="AL87">
-        <v>0.13027729916209826</v>
+        <v>9.6318049687325297E-2</v>
       </c>
       <c r="AM87">
-        <v>8.1414621520129007</v>
+        <v>6.6860322915975079</v>
       </c>
       <c r="AN87">
-        <v>6.34375</v>
+        <v>5.3562500000000002</v>
       </c>
       <c r="AO87">
-        <v>4.546875</v>
+        <v>4.2249999999999996</v>
       </c>
       <c r="AP87">
-        <v>0.1875</v>
+        <v>0.3046875</v>
       </c>
       <c r="AQ87">
-        <v>14.828125</v>
+        <v>13.785937499999999</v>
       </c>
       <c r="AR87">
         <v>27</v>
@@ -12687,16 +12687,16 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>178.17679165128777</v>
+        <v>178.17679165128774</v>
       </c>
       <c r="H88">
-        <v>175.10146579039827</v>
+        <v>175.10146579039829</v>
       </c>
       <c r="I88">
-        <v>175.38841389691646</v>
+        <v>175.38841389691649</v>
       </c>
       <c r="J88">
-        <v>175.38841395642254</v>
+        <v>175.38841395642251</v>
       </c>
       <c r="K88">
         <v>5.9353704512877812</v>
@@ -12774,28 +12774,28 @@
         <v>2</v>
       </c>
       <c r="AJ88">
-        <v>0.79989498965292061</v>
+        <v>0.51503625820576659</v>
       </c>
       <c r="AK88">
-        <v>0.61408537078210579</v>
+        <v>0.55477774709352212</v>
       </c>
       <c r="AL88">
-        <v>0.21211352407540218</v>
+        <v>0.11564576299074629</v>
       </c>
       <c r="AM88">
-        <v>9.8039885970438014</v>
+        <v>6.7233237335447669</v>
       </c>
       <c r="AN88">
-        <v>5.921875</v>
+        <v>5.0953125000000004</v>
       </c>
       <c r="AO88">
-        <v>4.375</v>
+        <v>3.9781249999999999</v>
       </c>
       <c r="AP88">
-        <v>0.65625</v>
+        <v>0.34218749999999998</v>
       </c>
       <c r="AQ88">
-        <v>17.015625</v>
+        <v>13.75</v>
       </c>
       <c r="AR88">
         <v>28</v>
@@ -12827,16 +12827,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>177.63614341160968</v>
+        <v>177.63614341160971</v>
       </c>
       <c r="H89">
-        <v>174.50794694553076</v>
+        <v>174.50794694553079</v>
       </c>
       <c r="I89">
-        <v>174.80892559203102</v>
+        <v>174.80892559203104</v>
       </c>
       <c r="J89">
-        <v>174.80892562379759</v>
+        <v>174.80892562379762</v>
       </c>
       <c r="K89">
         <v>5.9548999116096866</v>
@@ -12914,28 +12914,28 @@
         <v>2</v>
       </c>
       <c r="AJ89">
-        <v>0.63995723891425582</v>
+        <v>0.56655969942686724</v>
       </c>
       <c r="AK89">
-        <v>0.63112533629611767</v>
+        <v>0.57623592065757101</v>
       </c>
       <c r="AL89">
-        <v>0.11024290298121617</v>
+        <v>9.9510516627712611E-2</v>
       </c>
       <c r="AM89">
-        <v>6.797396102621474</v>
+        <v>6.5571872523275401</v>
       </c>
       <c r="AN89">
-        <v>4.03125</v>
+        <v>5.1843750000000002</v>
       </c>
       <c r="AO89">
-        <v>6.390625</v>
+        <v>4.6468749999999996</v>
       </c>
       <c r="AP89">
-        <v>0.140625</v>
+        <v>0.2109375</v>
       </c>
       <c r="AQ89">
-        <v>14.46875</v>
+        <v>13.551562499999999</v>
       </c>
       <c r="AR89">
         <v>26</v>
@@ -12970,13 +12970,13 @@
         <v>177.04102625449514</v>
       </c>
       <c r="H90">
-        <v>173.87111320079117</v>
+        <v>173.87111320079114</v>
       </c>
       <c r="I90">
         <v>174.179766406065</v>
       </c>
       <c r="J90">
-        <v>174.17976639817502</v>
+        <v>174.17976639817499</v>
       </c>
       <c r="K90">
         <v>5.7789917544951379</v>
@@ -13054,28 +13054,28 @@
         <v>2</v>
       </c>
       <c r="AJ90">
-        <v>2.1045362930385259</v>
+        <v>1.5105929320794913</v>
       </c>
       <c r="AK90">
-        <v>0.5001279753466239</v>
+        <v>0.52316487035474313</v>
       </c>
       <c r="AL90">
-        <v>0.11436954661445871</v>
+        <v>0.11104799990506056</v>
       </c>
       <c r="AM90">
-        <v>7.0706526550233688</v>
+        <v>6.3381225790042075</v>
       </c>
       <c r="AN90">
-        <v>19.140625</v>
+        <v>14.421875</v>
       </c>
       <c r="AO90">
-        <v>3.21875</v>
+        <v>4.1296875000000002</v>
       </c>
       <c r="AP90">
-        <v>0.1875</v>
+        <v>0.30937500000000001</v>
       </c>
       <c r="AQ90">
-        <v>14.359375</v>
+        <v>13.114062499999999</v>
       </c>
       <c r="AR90">
         <v>114</v>
@@ -13113,7 +13113,7 @@
         <v>173.18201867073253</v>
       </c>
       <c r="I91">
-        <v>173.50149843771527</v>
+        <v>173.5014984377153</v>
       </c>
       <c r="J91">
         <v>173.50149833731936</v>
@@ -13194,28 +13194,28 @@
         <v>2</v>
       </c>
       <c r="AJ91">
-        <v>0.66123899379945017</v>
+        <v>0.5696808976395682</v>
       </c>
       <c r="AK91">
-        <v>0.6248535820908927</v>
+        <v>0.50179085932059919</v>
       </c>
       <c r="AL91">
-        <v>9.3710669230877786E-2</v>
+        <v>9.0383532882563442E-2</v>
       </c>
       <c r="AM91">
-        <v>8.4055516282697855</v>
+        <v>6.7273466960594037</v>
       </c>
       <c r="AN91">
-        <v>5.5625</v>
+        <v>5.4468750000000004</v>
       </c>
       <c r="AO91">
-        <v>4.046875</v>
+        <v>4.0843749999999996</v>
       </c>
       <c r="AP91">
-        <v>0.3125</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="AQ91">
-        <v>14.53125</v>
+        <v>13.453125</v>
       </c>
       <c r="AR91">
         <v>27</v>
@@ -13253,7 +13253,7 @@
         <v>172.43130982741013</v>
       </c>
       <c r="I92">
-        <v>172.77364460268799</v>
+        <v>172.77364460268797</v>
       </c>
       <c r="J92">
         <v>172.77364427640649</v>
@@ -13334,28 +13334,28 @@
         <v>2</v>
       </c>
       <c r="AJ92">
-        <v>1.4173875837613077</v>
+        <v>1.1956856760441816</v>
       </c>
       <c r="AK92">
-        <v>0.56661838457265212</v>
+        <v>0.52542850242336125</v>
       </c>
       <c r="AL92">
-        <v>0.15462917940539894</v>
+        <v>0.163097296567394</v>
       </c>
       <c r="AM92">
-        <v>7.7165285131638202</v>
+        <v>6.4755638713095891</v>
       </c>
       <c r="AN92">
-        <v>11.578125</v>
+        <v>11.745312500000001</v>
       </c>
       <c r="AO92">
-        <v>4.390625</v>
+        <v>3.9234374999999999</v>
       </c>
       <c r="AP92">
-        <v>0.390625</v>
+        <v>0.61562499999999998</v>
       </c>
       <c r="AQ92">
-        <v>15.421875</v>
+        <v>13.590624999999999</v>
       </c>
       <c r="AR92">
         <v>83</v>
@@ -13387,13 +13387,13 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>174.93281248778578</v>
+        <v>174.93281248778575</v>
       </c>
       <c r="H93">
-        <v>171.62306773446781</v>
+        <v>171.62306773446784</v>
       </c>
       <c r="I93">
-        <v>171.9956149239494</v>
+        <v>171.99561492394943</v>
       </c>
       <c r="J93">
         <v>171.99561495578129</v>
@@ -13474,28 +13474,28 @@
         <v>2</v>
       </c>
       <c r="AJ93">
-        <v>0.68322573568183598</v>
+        <v>0.68400203093422018</v>
       </c>
       <c r="AK93">
-        <v>0.37338812003895067</v>
+        <v>0.53547508368943642</v>
       </c>
       <c r="AL93">
-        <v>0.20215101219197712</v>
+        <v>0.1054183156781258</v>
       </c>
       <c r="AM93">
-        <v>7.9393849100708582</v>
+        <v>6.4961781423110123</v>
       </c>
       <c r="AN93">
-        <v>5.875</v>
+        <v>6.5890624999999998</v>
       </c>
       <c r="AO93">
-        <v>3.296875</v>
+        <v>3.8125</v>
       </c>
       <c r="AP93">
-        <v>0.5</v>
+        <v>0.27812500000000001</v>
       </c>
       <c r="AQ93">
-        <v>14.59375</v>
+        <v>13.129687499999999</v>
       </c>
       <c r="AR93">
         <v>30</v>
@@ -13527,16 +13527,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>174.1065219693952</v>
+        <v>174.10652196939517</v>
       </c>
       <c r="H94">
         <v>170.76799812709785</v>
       </c>
       <c r="I94">
-        <v>171.16710515771805</v>
+        <v>171.16710515771803</v>
       </c>
       <c r="J94">
-        <v>171.16710514888257</v>
+        <v>171.16710514888254</v>
       </c>
       <c r="K94">
         <v>5.5589596693951933</v>
@@ -13614,28 +13614,28 @@
         <v>2</v>
       </c>
       <c r="AJ94">
-        <v>0.42965557632526652</v>
+        <v>0.50664162318215833</v>
       </c>
       <c r="AK94">
-        <v>0.7164617991986626</v>
+        <v>0.58762217438899578</v>
       </c>
       <c r="AL94">
-        <v>0.1702081732305083</v>
+        <v>8.9058261703771624E-2</v>
       </c>
       <c r="AM94">
-        <v>7.0804358731254338</v>
+        <v>6.7090314669714983</v>
       </c>
       <c r="AN94">
-        <v>3.609375</v>
+        <v>4.640625</v>
       </c>
       <c r="AO94">
-        <v>4.984375</v>
+        <v>4.7609374999999998</v>
       </c>
       <c r="AP94">
-        <v>0.1875</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="AQ94">
-        <v>14.015625</v>
+        <v>13.921875</v>
       </c>
       <c r="AR94">
         <v>26</v>
@@ -13667,16 +13667,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>173.21027942163408</v>
+        <v>173.21027942163411</v>
       </c>
       <c r="H95">
-        <v>169.8705551487611</v>
+        <v>169.87055514876107</v>
       </c>
       <c r="I95">
-        <v>170.28637566968146</v>
+        <v>170.28637566968149</v>
       </c>
       <c r="J95">
-        <v>170.28637567208222</v>
+        <v>170.28637567208219</v>
       </c>
       <c r="K95">
         <v>5.4504446216340909</v>
@@ -13754,28 +13754,28 @@
         <v>2</v>
       </c>
       <c r="AJ95">
-        <v>0.75114023147179987</v>
+        <v>0.53292547863429629</v>
       </c>
       <c r="AK95">
-        <v>0.53074134610820234</v>
+        <v>0.50509847240517824</v>
       </c>
       <c r="AL95">
-        <v>0.2078739798857395</v>
+        <v>0.10304941629885653</v>
       </c>
       <c r="AM95">
-        <v>8.2207792832610806</v>
+        <v>6.9425956378535076</v>
       </c>
       <c r="AN95">
-        <v>6.8125</v>
+        <v>5.65</v>
       </c>
       <c r="AO95">
-        <v>4.234375</v>
+        <v>3.8109375000000001</v>
       </c>
       <c r="AP95">
-        <v>0.234375</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="AQ95">
-        <v>14.390625</v>
+        <v>13.80625</v>
       </c>
       <c r="AR95">
         <v>26</v>
@@ -13807,13 +13807,13 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>172.24630982890235</v>
+        <v>172.24630982890238</v>
       </c>
       <c r="H96">
-        <v>168.90559408289474</v>
+        <v>168.90559408289477</v>
       </c>
       <c r="I96">
-        <v>169.35050198358255</v>
+        <v>169.35050198358252</v>
       </c>
       <c r="J96">
         <v>169.35050197447916</v>
@@ -13894,28 +13894,28 @@
         <v>2</v>
       </c>
       <c r="AJ96">
-        <v>0.46086712759174131</v>
+        <v>0.51816553910045526</v>
       </c>
       <c r="AK96">
-        <v>0.45113169978202494</v>
+        <v>0.46236478747517867</v>
       </c>
       <c r="AL96">
-        <v>0.18904620840159755</v>
+        <v>0.11389185307352001</v>
       </c>
       <c r="AM96">
-        <v>6.7139016507857496</v>
+        <v>6.9941398951881428</v>
       </c>
       <c r="AN96">
-        <v>4.859375</v>
+        <v>5.1468749999999996</v>
       </c>
       <c r="AO96">
-        <v>3.015625</v>
+        <v>4.0296874999999996</v>
       </c>
       <c r="AP96">
-        <v>0.453125</v>
+        <v>0.40156249999999999</v>
       </c>
       <c r="AQ96">
-        <v>13.875</v>
+        <v>14.0390625</v>
       </c>
       <c r="AR96">
         <v>25</v>
@@ -13950,13 +13950,13 @@
         <v>171.21644142777038</v>
       </c>
       <c r="H97">
-        <v>167.86683037095091</v>
+        <v>167.86683037095094</v>
       </c>
       <c r="I97">
         <v>168.35578971064979</v>
       </c>
       <c r="J97">
-        <v>168.35578970280073</v>
+        <v>168.35578970280076</v>
       </c>
       <c r="K97">
         <v>5.1938009277703827</v>
@@ -14034,28 +14034,28 @@
         <v>2</v>
       </c>
       <c r="AJ97">
-        <v>0.54559258038070579</v>
+        <v>0.49162656597954257</v>
       </c>
       <c r="AK97">
-        <v>0.61301409845698296</v>
+        <v>0.55134841266710211</v>
       </c>
       <c r="AL97">
-        <v>0.14180855144737231</v>
+        <v>0.11416890945054761</v>
       </c>
       <c r="AM97">
-        <v>8.3543505844528241</v>
+        <v>6.9458220071544572</v>
       </c>
       <c r="AN97">
-        <v>5.703125</v>
+        <v>5.2671875000000004</v>
       </c>
       <c r="AO97">
-        <v>4.46875</v>
+        <v>3.1453125000000002</v>
       </c>
       <c r="AP97">
-        <v>0.609375</v>
+        <v>0.2890625</v>
       </c>
       <c r="AQ97">
-        <v>15.53125</v>
+        <v>14.209375</v>
       </c>
       <c r="AR97">
         <v>28</v>
@@ -14093,10 +14093,10 @@
         <v>166.76170217496585</v>
       </c>
       <c r="I98">
-        <v>167.30081719646947</v>
+        <v>167.3008171964695</v>
       </c>
       <c r="J98">
-        <v>167.30081719885749</v>
+        <v>167.30081719885746</v>
       </c>
       <c r="K98">
         <v>5.2272436839951979</v>
@@ -14174,28 +14174,28 @@
         <v>2</v>
       </c>
       <c r="AJ98">
-        <v>0.42555298820830667</v>
+        <v>0.50275160795656659</v>
       </c>
       <c r="AK98">
-        <v>0.62384164670593378</v>
+        <v>0.61114768631624394</v>
       </c>
       <c r="AL98">
-        <v>0.12520511336883713</v>
+        <v>0.1003000535317311</v>
       </c>
       <c r="AM98">
-        <v>7.6199000701779598</v>
+        <v>7.6229119978754083</v>
       </c>
       <c r="AN98">
-        <v>4.890625</v>
+        <v>5.0281250000000002</v>
       </c>
       <c r="AO98">
-        <v>3.9375</v>
+        <v>4.1843750000000002</v>
       </c>
       <c r="AP98">
-        <v>0.359375</v>
+        <v>0.27187499999999998</v>
       </c>
       <c r="AQ98">
-        <v>14.203125</v>
+        <v>15.165625</v>
       </c>
       <c r="AR98">
         <v>25</v>
@@ -14227,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>168.96739781101095</v>
+        <v>168.96739781101093</v>
       </c>
       <c r="H99">
         <v>165.62998237407396</v>
@@ -14314,28 +14314,28 @@
         <v>2</v>
       </c>
       <c r="AJ99">
-        <v>0.58003783451600943</v>
+        <v>0.43296473737537988</v>
       </c>
       <c r="AK99">
-        <v>0.64047330992357399</v>
+        <v>0.59266223979457167</v>
       </c>
       <c r="AL99">
-        <v>8.9412429581485334E-2</v>
+        <v>8.9496137793049352E-2</v>
       </c>
       <c r="AM99">
-        <v>7.5952178275110427</v>
+        <v>6.8925350017015319</v>
       </c>
       <c r="AN99">
-        <v>5.796875</v>
+        <v>4.4656250000000002</v>
       </c>
       <c r="AO99">
-        <v>3.953125</v>
+        <v>4.0390625</v>
       </c>
       <c r="AP99">
-        <v>9.375E-2</v>
+        <v>0.27656249999999999</v>
       </c>
       <c r="AQ99">
-        <v>15.390625</v>
+        <v>14.046875</v>
       </c>
       <c r="AR99">
         <v>23</v>
@@ -14367,16 +14367,16 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>167.74263322403186</v>
+        <v>167.74263322403183</v>
       </c>
       <c r="H100">
-        <v>164.47664671611176</v>
+        <v>164.47664671611173</v>
       </c>
       <c r="I100">
         <v>165.00805055816093</v>
       </c>
       <c r="J100">
-        <v>165.00805055883245</v>
+        <v>165.00805055883248</v>
       </c>
       <c r="K100">
         <v>5.1262069240318624</v>
@@ -14454,28 +14454,28 @@
         <v>0</v>
       </c>
       <c r="AJ100">
-        <v>0.79608138847157028</v>
+        <v>0.52125020487353635</v>
       </c>
       <c r="AK100">
-        <v>0.58436750670667792</v>
+        <v>0.49237014064828893</v>
       </c>
       <c r="AL100">
-        <v>8.983195778545558E-2</v>
+        <v>9.1771156179547148E-2</v>
       </c>
       <c r="AM100">
-        <v>8.985777737293235</v>
+        <v>6.8580157593054283</v>
       </c>
       <c r="AN100">
-        <v>8.8125</v>
+        <v>4.9562499999999998</v>
       </c>
       <c r="AO100">
-        <v>3.625</v>
+        <v>3.4078124999999999</v>
       </c>
       <c r="AP100">
-        <v>0.328125</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="AQ100">
-        <v>16.703125</v>
+        <v>14.2515625</v>
       </c>
       <c r="AR100">
         <v>25</v>
@@ -14507,13 +14507,13 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>166.44587442690738</v>
+        <v>166.44587442690735</v>
       </c>
       <c r="H101">
-        <v>163.26449319764487</v>
+        <v>163.2644931976449</v>
       </c>
       <c r="I101">
-        <v>163.76792021431618</v>
+        <v>163.76792021431621</v>
       </c>
       <c r="J101">
         <v>163.76792023867412</v>
@@ -14594,28 +14594,28 @@
         <v>0</v>
       </c>
       <c r="AJ101">
-        <v>0.60201463345166506</v>
+        <v>0.47974944968803096</v>
       </c>
       <c r="AK101">
-        <v>0.4570801478484105</v>
+        <v>0.40118969381068614</v>
       </c>
       <c r="AL101">
-        <v>0.1040577486346089</v>
+        <v>8.7110944753264904E-2</v>
       </c>
       <c r="AM101">
-        <v>8.7011586419602622</v>
+        <v>7.3703663539759248</v>
       </c>
       <c r="AN101">
-        <v>6.984375</v>
+        <v>4.59375</v>
       </c>
       <c r="AO101">
-        <v>3.890625</v>
+        <v>3.125</v>
       </c>
       <c r="AP101">
-        <v>0.5</v>
+        <v>0.20937500000000001</v>
       </c>
       <c r="AQ101">
-        <v>15.53125</v>
+        <v>14.321875</v>
       </c>
       <c r="AR101">
         <v>23</v>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>165.07760423135997</v>
+        <v>165.07760423136</v>
       </c>
       <c r="H102">
         <v>161.97369047604732</v>
@@ -14656,7 +14656,7 @@
         <v>162.46528465507822</v>
       </c>
       <c r="J102">
-        <v>162.46528466712141</v>
+        <v>162.46528466712144</v>
       </c>
       <c r="K102">
         <v>5.0110052313599738</v>
@@ -14734,28 +14734,28 @@
         <v>0</v>
       </c>
       <c r="AJ102">
-        <v>0.43778986897120653</v>
+        <v>0.49426626727953921</v>
       </c>
       <c r="AK102">
-        <v>0.49007373176110758</v>
+        <v>0.47791285265110367</v>
       </c>
       <c r="AL102">
-        <v>0.1622932668930665</v>
+        <v>9.7421945187227937E-2</v>
       </c>
       <c r="AM102">
-        <v>6.7672025808040832</v>
+        <v>7.2261678112321706</v>
       </c>
       <c r="AN102">
-        <v>3.859375</v>
+        <v>4.8484375000000002</v>
       </c>
       <c r="AO102">
-        <v>3.359375</v>
+        <v>3.1671874999999998</v>
       </c>
       <c r="AP102">
-        <v>0.390625</v>
+        <v>0.33906249999999999</v>
       </c>
       <c r="AQ102">
-        <v>14.328125</v>
+        <v>14.44375</v>
       </c>
       <c r="AR102">
         <v>25</v>
@@ -14787,16 +14787,16 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>163.6410288717388</v>
+        <v>163.64102887173883</v>
       </c>
       <c r="H103">
-        <v>160.62011580014695</v>
+        <v>160.62011580014698</v>
       </c>
       <c r="I103">
-        <v>161.1008602368521</v>
+        <v>161.10086023685207</v>
       </c>
       <c r="J103">
-        <v>161.1008602379323</v>
+        <v>161.10086023793227</v>
       </c>
       <c r="K103">
         <v>4.8984722717387967</v>
@@ -14874,28 +14874,28 @@
         <v>0</v>
       </c>
       <c r="AJ103">
-        <v>0.66360316993971369</v>
+        <v>0.48592971851418498</v>
       </c>
       <c r="AK103">
-        <v>0.51832003972046847</v>
+        <v>0.47266597322387066</v>
       </c>
       <c r="AL103">
-        <v>0.25839377148157605</v>
+        <v>0.12447420068850339</v>
       </c>
       <c r="AM103">
-        <v>7.7425921839457974</v>
+        <v>7.1305779085547174</v>
       </c>
       <c r="AN103">
-        <v>6.4375</v>
+        <v>4.6609375000000002</v>
       </c>
       <c r="AO103">
-        <v>2.59375</v>
+        <v>3.3421875000000001</v>
       </c>
       <c r="AP103">
-        <v>0.25</v>
+        <v>0.40937499999999999</v>
       </c>
       <c r="AQ103">
-        <v>13.84375</v>
+        <v>14.3828125</v>
       </c>
       <c r="AR103">
         <v>25</v>
@@ -14927,16 +14927,16 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>162.14141933682282</v>
+        <v>162.14141933682279</v>
       </c>
       <c r="H104">
-        <v>159.24323595863606</v>
+        <v>159.24323595863603</v>
       </c>
       <c r="I104">
-        <v>159.67343873206727</v>
+        <v>159.6734387320673</v>
       </c>
       <c r="J104">
-        <v>159.67343873532997</v>
+        <v>159.67343873532994</v>
       </c>
       <c r="K104">
         <v>4.7605592368228145</v>
@@ -15014,28 +15014,28 @@
         <v>0</v>
       </c>
       <c r="AJ104">
-        <v>0.69147581554615001</v>
+        <v>0.54143509943142187</v>
       </c>
       <c r="AK104">
-        <v>0.39890909837359051</v>
+        <v>0.41216065164378335</v>
       </c>
       <c r="AL104">
-        <v>0.15533929824606418</v>
+        <v>7.9363661993785944E-2</v>
       </c>
       <c r="AM104">
-        <v>8.1463155929780982</v>
+        <v>7.5458688353913699</v>
       </c>
       <c r="AN104">
-        <v>6.265625</v>
+        <v>5.6546874999999996</v>
       </c>
       <c r="AO104">
-        <v>2.328125</v>
+        <v>2.9734375000000002</v>
       </c>
       <c r="AP104">
-        <v>0.203125</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="AQ104">
-        <v>14.96875</v>
+        <v>15.401562500000001</v>
       </c>
       <c r="AR104">
         <v>28</v>
@@ -15070,7 +15070,7 @@
         <v>160.57520494977325</v>
       </c>
       <c r="H105">
-        <v>157.80778464108863</v>
+        <v>157.8077846410886</v>
       </c>
       <c r="I105">
         <v>158.18234059389349</v>
@@ -15154,28 +15154,28 @@
         <v>0</v>
       </c>
       <c r="AJ105">
-        <v>0.76400736676130643</v>
+        <v>0.55611944022936854</v>
       </c>
       <c r="AK105">
-        <v>0.33895954439493642</v>
+        <v>0.3708595579478583</v>
       </c>
       <c r="AL105">
-        <v>0.19774211716768428</v>
+        <v>0.1024914867227515</v>
       </c>
       <c r="AM105">
-        <v>9.0459505264629918</v>
+        <v>7.3841750388177214</v>
       </c>
       <c r="AN105">
-        <v>7.828125</v>
+        <v>5.1187500000000004</v>
       </c>
       <c r="AO105">
-        <v>2.46875</v>
+        <v>2.4046875000000001</v>
       </c>
       <c r="AP105">
-        <v>0.203125</v>
+        <v>0.25937500000000002</v>
       </c>
       <c r="AQ105">
-        <v>17.640625</v>
+        <v>14.84375</v>
       </c>
       <c r="AR105">
         <v>30</v>
@@ -15207,16 +15207,16 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>158.93185139664587</v>
+        <v>158.9318513966459</v>
       </c>
       <c r="H106">
-        <v>156.30218110655724</v>
+        <v>156.30218110655727</v>
       </c>
       <c r="I106">
-        <v>156.62535008960216</v>
+        <v>156.62535008960214</v>
       </c>
       <c r="J106">
-        <v>156.6253500902354</v>
+        <v>156.62535009023537</v>
       </c>
       <c r="K106">
         <v>4.4381117966458703</v>
@@ -15294,28 +15294,28 @@
         <v>0</v>
       </c>
       <c r="AJ106">
-        <v>0.74545671482474118</v>
+        <v>0.52915696023160097</v>
       </c>
       <c r="AK106">
-        <v>0.36069450520689667</v>
+        <v>0.34315420891231152</v>
       </c>
       <c r="AL106">
-        <v>0.17086633215600291</v>
+        <v>9.6962483205181138E-2</v>
       </c>
       <c r="AM106">
-        <v>8.0156720084880693</v>
+        <v>7.8189675849170737</v>
       </c>
       <c r="AN106">
-        <v>6.53125</v>
+        <v>5.0718750000000004</v>
       </c>
       <c r="AO106">
-        <v>1.921875</v>
+        <v>2.1015625</v>
       </c>
       <c r="AP106">
-        <v>0.21875</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="AQ106">
-        <v>14.734375</v>
+        <v>15.090624999999999</v>
       </c>
       <c r="AR106">
         <v>26</v>
@@ -15347,16 +15347,16 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>157.21084891431525</v>
+        <v>157.21084891431522</v>
       </c>
       <c r="H107">
-        <v>154.72063987257565</v>
+        <v>154.72063987257567</v>
       </c>
       <c r="I107">
         <v>154.99850415947208</v>
       </c>
       <c r="J107">
-        <v>154.99850422104288</v>
+        <v>154.99850422104285</v>
       </c>
       <c r="K107">
         <v>4.2777811143152462</v>
@@ -15434,28 +15434,28 @@
         <v>0</v>
       </c>
       <c r="AJ107">
-        <v>0.72927889901430121</v>
+        <v>0.60444229975395924</v>
       </c>
       <c r="AK107">
-        <v>0.29931605356105034</v>
+        <v>0.33217350054221328</v>
       </c>
       <c r="AL107">
-        <v>0.15547272617637889</v>
+        <v>0.11411999639486725</v>
       </c>
       <c r="AM107">
-        <v>11.038713023464071</v>
+        <v>7.6762731587281579</v>
       </c>
       <c r="AN107">
-        <v>6.5625</v>
+        <v>5.7484374999999996</v>
       </c>
       <c r="AO107">
-        <v>2.21875</v>
+        <v>2.1390625000000001</v>
       </c>
       <c r="AP107">
-        <v>0.25</v>
+        <v>0.2890625</v>
       </c>
       <c r="AQ107">
-        <v>19.03125</v>
+        <v>15.214062500000001</v>
       </c>
       <c r="AR107">
         <v>27</v>
@@ -15493,10 +15493,10 @@
         <v>153.04752341135011</v>
       </c>
       <c r="I108">
-        <v>153.30115321593115</v>
+        <v>153.30115321593118</v>
       </c>
       <c r="J108">
-        <v>153.30115321430122</v>
+        <v>153.30115321430119</v>
       </c>
       <c r="K108">
         <v>4.1326021703878268</v>
@@ -15574,28 +15574,28 @@
         <v>0</v>
       </c>
       <c r="AJ108">
-        <v>0.62677609895220587</v>
+        <v>0.53516649843782926</v>
       </c>
       <c r="AK108">
-        <v>0.31877440031201609</v>
+        <v>0.31018822064567159</v>
       </c>
       <c r="AL108">
-        <v>0.17674229293332325</v>
+        <v>9.5008783501834809E-2</v>
       </c>
       <c r="AM108">
-        <v>9.0436928360748077</v>
+        <v>7.6779387364779463</v>
       </c>
       <c r="AN108">
-        <v>5.3125</v>
+        <v>5.203125</v>
       </c>
       <c r="AO108">
-        <v>1.265625</v>
+        <v>1.9546874999999999</v>
       </c>
       <c r="AP108">
-        <v>0.28125</v>
+        <v>0.30156250000000001</v>
       </c>
       <c r="AQ108">
-        <v>16.078125</v>
+        <v>14.948437500000001</v>
       </c>
       <c r="AR108">
         <v>25</v>
@@ -15627,10 +15627,10 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>153.52608367775923</v>
+        <v>153.52608367775926</v>
       </c>
       <c r="H109">
-        <v>151.24013408894956</v>
+        <v>151.24013408894959</v>
       </c>
       <c r="I109">
         <v>151.5222293110501</v>
@@ -15714,28 +15714,28 @@
         <v>0</v>
       </c>
       <c r="AJ109">
-        <v>0.85953887820467589</v>
+        <v>0.58749047799120979</v>
       </c>
       <c r="AK109">
-        <v>0.31009549077743581</v>
+        <v>0.32664308576270851</v>
       </c>
       <c r="AL109">
-        <v>0.17463182230478788</v>
+        <v>8.6199237469517534E-2</v>
       </c>
       <c r="AM109">
-        <v>8.4269918288222296</v>
+        <v>7.8782924821114548</v>
       </c>
       <c r="AN109">
-        <v>7.453125</v>
+        <v>6.0593750000000002</v>
       </c>
       <c r="AO109">
-        <v>1.5625</v>
+        <v>1.8546875</v>
       </c>
       <c r="AP109">
-        <v>0.453125</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AQ109">
-        <v>15.515625</v>
+        <v>15.003125000000001</v>
       </c>
       <c r="AR109">
         <v>28</v>
@@ -15767,13 +15767,13 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>151.56456492442101</v>
+        <v>151.56456492442103</v>
       </c>
       <c r="H110">
-        <v>149.31581818721898</v>
+        <v>149.31581818721901</v>
       </c>
       <c r="I110">
-        <v>149.64925784947883</v>
+        <v>149.6492578494788</v>
       </c>
       <c r="J110">
         <v>149.64925785194873</v>
@@ -15854,28 +15854,28 @@
         <v>0</v>
       </c>
       <c r="AJ110">
-        <v>0.72429780344269723</v>
+        <v>0.56018368215558723</v>
       </c>
       <c r="AK110">
-        <v>0.36732163957267139</v>
+        <v>0.33759271429611548</v>
       </c>
       <c r="AL110">
-        <v>0.16387227098186277</v>
+        <v>0.10593685821660752</v>
       </c>
       <c r="AM110">
-        <v>8.1757505641820423</v>
+        <v>8.1234287121882041</v>
       </c>
       <c r="AN110">
-        <v>5.53125</v>
+        <v>5.6124999999999998</v>
       </c>
       <c r="AO110">
-        <v>2.21875</v>
+        <v>2.1343749999999999</v>
       </c>
       <c r="AP110">
-        <v>0.40625</v>
+        <v>0.24531249999999999</v>
       </c>
       <c r="AQ110">
-        <v>14.84375</v>
+        <v>15.7015625</v>
       </c>
       <c r="AR110">
         <v>27</v>
@@ -15907,16 +15907,16 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>149.50205477706263</v>
+        <v>149.5020547770626</v>
       </c>
       <c r="H111">
-        <v>147.21929619680566</v>
+        <v>147.21929619680569</v>
       </c>
       <c r="I111">
         <v>147.66795216667674</v>
       </c>
       <c r="J111">
-        <v>147.66795210771201</v>
+        <v>147.66795210771198</v>
       </c>
       <c r="K111">
         <v>3.5833414770626177</v>
@@ -15994,28 +15994,28 @@
         <v>0</v>
       </c>
       <c r="AJ111">
-        <v>0.70534590549453646</v>
+        <v>0.51045584722704673</v>
       </c>
       <c r="AK111">
-        <v>0.42477711762313536</v>
+        <v>0.36184467330408809</v>
       </c>
       <c r="AL111">
-        <v>0.16281414900564117</v>
+        <v>8.6850406555696577E-2</v>
       </c>
       <c r="AM111">
-        <v>11.39552272316142</v>
+        <v>9.4731018607167847</v>
       </c>
       <c r="AN111">
-        <v>7.09375</v>
+        <v>5.3843750000000004</v>
       </c>
       <c r="AO111">
-        <v>2.765625</v>
+        <v>2.3812500000000001</v>
       </c>
       <c r="AP111">
-        <v>0.171875</v>
+        <v>0.27812500000000001</v>
       </c>
       <c r="AQ111">
-        <v>21</v>
+        <v>16.8203125</v>
       </c>
       <c r="AR111">
         <v>26</v>
@@ -16047,13 +16047,13 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>147.32542976549365</v>
+        <v>147.32542976549368</v>
       </c>
       <c r="H112">
-        <v>145.07559127595042</v>
+        <v>145.07559127595044</v>
       </c>
       <c r="I112">
-        <v>145.56958812481395</v>
+        <v>145.56958812481392</v>
       </c>
       <c r="J112">
         <v>145.56958812943319</v>
@@ -16134,28 +16134,28 @@
         <v>0</v>
       </c>
       <c r="AJ112">
-        <v>0.69024898421573244</v>
+        <v>0.50511899985149677</v>
       </c>
       <c r="AK112">
-        <v>0.37468166533452563</v>
+        <v>0.36045239925754796</v>
       </c>
       <c r="AL112">
-        <v>0.17317694468001033</v>
+        <v>0.1018053247554267</v>
       </c>
       <c r="AM112">
-        <v>10.629197687591331</v>
+        <v>10.278356149269175</v>
       </c>
       <c r="AN112">
-        <v>5.90625</v>
+        <v>4.8671875</v>
       </c>
       <c r="AO112">
-        <v>1.828125</v>
+        <v>1.8796875</v>
       </c>
       <c r="AP112">
-        <v>0.875</v>
+        <v>0.33281250000000001</v>
       </c>
       <c r="AQ112">
-        <v>19.546875</v>
+        <v>18.4296875</v>
       </c>
       <c r="AR112">
         <v>26</v>
@@ -16187,16 +16187,16 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>145.02528945478667</v>
+        <v>145.02528945478664</v>
       </c>
       <c r="H113">
-        <v>142.8597197316638</v>
+        <v>142.85971973166377</v>
       </c>
       <c r="I113">
-        <v>143.35033035099408</v>
+        <v>143.35033035099406</v>
       </c>
       <c r="J113">
-        <v>143.35033035162579</v>
+        <v>143.35033035162581</v>
       </c>
       <c r="K113">
         <v>3.2601602547866833</v>
@@ -16274,28 +16274,28 @@
         <v>0</v>
       </c>
       <c r="AJ113">
-        <v>1.2526922933823594</v>
+        <v>1.1076431701176832</v>
       </c>
       <c r="AK113">
-        <v>0.31031134894354589</v>
+        <v>0.31538811146531648</v>
       </c>
       <c r="AL113">
-        <v>0.14892321094314304</v>
+        <v>8.2729650003832866E-2</v>
       </c>
       <c r="AM113">
-        <v>11.496266263132709</v>
+        <v>10.087904041886254</v>
       </c>
       <c r="AN113">
-        <v>11.484375</v>
+        <v>11.425000000000001</v>
       </c>
       <c r="AO113">
-        <v>2.109375</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="AP113">
-        <v>0.34375</v>
+        <v>0.38906249999999998</v>
       </c>
       <c r="AQ113">
-        <v>18.984375</v>
+        <v>18.3125</v>
       </c>
       <c r="AR113">
         <v>81</v>
@@ -16330,13 +16330,13 @@
         <v>142.58853668812159</v>
       </c>
       <c r="H114">
-        <v>140.5127153854518</v>
+        <v>140.51271538545183</v>
       </c>
       <c r="I114">
-        <v>140.99395030782711</v>
+        <v>140.99395030782713</v>
       </c>
       <c r="J114">
-        <v>140.99395024171858</v>
+        <v>140.99395024171855</v>
       </c>
       <c r="K114">
         <v>3.0311289881215941</v>
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y114">
         <v>0</v>
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -16414,28 +16414,28 @@
         <v>0</v>
       </c>
       <c r="AJ114">
-        <v>1.0081304437633347</v>
+        <v>0.63857530541793062</v>
       </c>
       <c r="AK114">
-        <v>0.29952742136412097</v>
+        <v>0.31390339976207404</v>
       </c>
       <c r="AL114">
-        <v>0.13227679367551609</v>
+        <v>6.8172643521329457E-2</v>
       </c>
       <c r="AM114">
-        <v>11.668359426619128</v>
+        <v>10.009346723643159</v>
       </c>
       <c r="AN114">
-        <v>11.390625</v>
+        <v>6.4265625000000002</v>
       </c>
       <c r="AO114">
-        <v>0.875</v>
+        <v>1.5953124999999999</v>
       </c>
       <c r="AP114">
-        <v>0.28125</v>
+        <v>0.22968749999999999</v>
       </c>
       <c r="AQ114">
-        <v>19.265625</v>
+        <v>17.779687500000001</v>
       </c>
       <c r="AR114">
         <v>30</v>
@@ -16473,10 +16473,10 @@
         <v>138.10056314090366</v>
       </c>
       <c r="I115">
-        <v>138.5024415804408</v>
+        <v>138.50244158044077</v>
       </c>
       <c r="J115">
-        <v>138.50244159113043</v>
+        <v>138.50244159113046</v>
       </c>
       <c r="K115">
         <v>2.7747800485958862</v>
@@ -16518,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y115">
         <v>0</v>
@@ -16530,7 +16530,7 @@
         <v>0</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -16554,28 +16554,28 @@
         <v>0</v>
       </c>
       <c r="AJ115">
-        <v>0.9862040010417642</v>
+        <v>0.61221864167963269</v>
       </c>
       <c r="AK115">
-        <v>0.26205309661850001</v>
+        <v>0.26851141053385147</v>
       </c>
       <c r="AL115">
-        <v>0.15936587093157073</v>
+        <v>8.9082221082521312E-2</v>
       </c>
       <c r="AM115">
-        <v>11.839040370929647</v>
+        <v>10.438042233296352</v>
       </c>
       <c r="AN115">
-        <v>8.34375</v>
+        <v>6.1</v>
       </c>
       <c r="AO115">
-        <v>1.703125</v>
+        <v>1.4937499999999999</v>
       </c>
       <c r="AP115">
-        <v>0.375</v>
+        <v>0.30312499999999998</v>
       </c>
       <c r="AQ115">
-        <v>18.9375</v>
+        <v>18.5234375</v>
       </c>
       <c r="AR115">
         <v>32</v>
@@ -16610,13 +16610,13 @@
         <v>137.13461025634021</v>
       </c>
       <c r="H116">
-        <v>135.3754953310241</v>
+        <v>135.37549533102407</v>
       </c>
       <c r="I116">
         <v>135.84526622314613</v>
       </c>
       <c r="J116">
-        <v>135.84568878135775</v>
+        <v>135.84568878135772</v>
       </c>
       <c r="K116">
         <v>2.3843167563402119</v>
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="Y116">
         <v>0</v>
@@ -16670,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -16694,28 +16694,28 @@
         <v>0</v>
       </c>
       <c r="AJ116">
-        <v>0.76852563419963127</v>
+        <v>0.60803219729955027</v>
       </c>
       <c r="AK116">
-        <v>0.26926333669896735</v>
+        <v>0.24899904643597029</v>
       </c>
       <c r="AL116">
-        <v>0.15480879392697644</v>
+        <v>9.8346385902519651E-2</v>
       </c>
       <c r="AM116">
-        <v>10.433926873796421</v>
+        <v>9.8928447095478624</v>
       </c>
       <c r="AN116">
-        <v>7.0625</v>
+        <v>6.5203125000000002</v>
       </c>
       <c r="AO116">
-        <v>0.828125</v>
+        <v>1.2359374999999999</v>
       </c>
       <c r="AP116">
-        <v>0.1875</v>
+        <v>0.31874999999999998</v>
       </c>
       <c r="AQ116">
-        <v>18.59375</v>
+        <v>17.276562500000001</v>
       </c>
       <c r="AR116">
         <v>34</v>
@@ -16750,13 +16750,13 @@
         <v>134.10471671489495</v>
       </c>
       <c r="H117">
-        <v>132.36701925665938</v>
+        <v>132.3670192566594</v>
       </c>
       <c r="I117">
         <v>132.89739266340712</v>
       </c>
       <c r="J117">
-        <v>132.89739267067162</v>
+        <v>132.89739267067165</v>
       </c>
       <c r="K117">
         <v>2.2523049148949497</v>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="X117">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="Y117">
         <v>0</v>
@@ -16810,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -16834,28 +16834,28 @@
         <v>0</v>
       </c>
       <c r="AJ117">
-        <v>0.9591248667324398</v>
+        <v>0.73845124266424444</v>
       </c>
       <c r="AK117">
-        <v>0.2439694424380362</v>
+        <v>0.24978697963324509</v>
       </c>
       <c r="AL117">
-        <v>0.11842530665972158</v>
+        <v>7.3289430257520022E-2</v>
       </c>
       <c r="AM117">
-        <v>11.033540445982856</v>
+        <v>10.393289866465754</v>
       </c>
       <c r="AN117">
-        <v>9.25</v>
+        <v>7.6</v>
       </c>
       <c r="AO117">
-        <v>1.1875</v>
+        <v>1.1984375</v>
       </c>
       <c r="AP117">
-        <v>0.125</v>
+        <v>0.16093750000000001</v>
       </c>
       <c r="AQ117">
-        <v>18.609375</v>
+        <v>18.401562500000001</v>
       </c>
       <c r="AR117">
         <v>37</v>
@@ -16887,16 +16887,16 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>130.84506313205688</v>
+        <v>130.84506313205685</v>
       </c>
       <c r="H118">
         <v>129.02272024407739</v>
       </c>
       <c r="I118">
-        <v>129.58879808097498</v>
+        <v>129.58879808097501</v>
       </c>
       <c r="J118">
-        <v>129.58879809232221</v>
+        <v>129.58879809232218</v>
       </c>
       <c r="K118">
         <v>2.0823450320568782</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="X118">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="Y118">
         <v>0</v>
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>4.1793235538989393E-11</v>
       </c>
       <c r="AF118">
-        <v>1.0000000001727907</v>
+        <v>1.0000000001727904</v>
       </c>
       <c r="AG118">
         <v>2.9968050263562418E-10</v>
@@ -16974,28 +16974,28 @@
         <v>0</v>
       </c>
       <c r="AJ118">
-        <v>0.98226627339639516</v>
+        <v>0.68907647981237907</v>
       </c>
       <c r="AK118">
-        <v>0.21204648937002774</v>
+        <v>0.25261883707526228</v>
       </c>
       <c r="AL118">
-        <v>0.23310308462281593</v>
+        <v>0.12755190637431735</v>
       </c>
       <c r="AM118">
-        <v>12.059232378853213</v>
+        <v>9.8723243836874808</v>
       </c>
       <c r="AN118">
-        <v>7.078125</v>
+        <v>7.0671875000000002</v>
       </c>
       <c r="AO118">
-        <v>1.125</v>
+        <v>0.95156249999999998</v>
       </c>
       <c r="AP118">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="AQ118">
-        <v>20.390625</v>
+        <v>17.803125000000001</v>
       </c>
       <c r="AR118">
         <v>33</v>
@@ -17027,7 +17027,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>127.22372883377285</v>
+        <v>127.22372883377287</v>
       </c>
       <c r="H119">
         <v>125.46092407222787</v>
@@ -17036,7 +17036,7 @@
         <v>125.95189559141545</v>
       </c>
       <c r="J119">
-        <v>125.95189558258745</v>
+        <v>125.95189558258747</v>
       </c>
       <c r="K119">
         <v>2.0034353337728561</v>
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="Y119">
         <v>0</v>
@@ -17090,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -17114,28 +17114,28 @@
         <v>0</v>
       </c>
       <c r="AJ119">
-        <v>1.407620081929881</v>
+        <v>1.3884007740130229</v>
       </c>
       <c r="AK119">
-        <v>0.19662113010891055</v>
+        <v>0.18977899958848882</v>
       </c>
       <c r="AL119">
-        <v>0.12636843813626841</v>
+        <v>8.6560231857506165E-2</v>
       </c>
       <c r="AM119">
-        <v>10.018951897948162</v>
+        <v>8.9413557480217474</v>
       </c>
       <c r="AN119">
-        <v>13.28125</v>
+        <v>13.9375</v>
       </c>
       <c r="AO119">
-        <v>0.671875</v>
+        <v>0.828125</v>
       </c>
       <c r="AP119">
-        <v>0.578125</v>
+        <v>0.27031250000000001</v>
       </c>
       <c r="AQ119">
-        <v>16.9375</v>
+        <v>16.823437500000001</v>
       </c>
       <c r="AR119">
         <v>105</v>
@@ -17167,7 +17167,7 @@
         <v>3</v>
       </c>
       <c r="G120">
-        <v>123.24353445831467</v>
+        <v>123.24353445831466</v>
       </c>
       <c r="H120">
         <v>121.64788058173033</v>
@@ -17218,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="Y120">
         <v>0</v>
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -17245,7 +17245,7 @@
         <v>7.0927708151202751E-12</v>
       </c>
       <c r="AG120">
-        <v>4.6187316768393821E-10</v>
+        <v>4.6187316768393827E-10</v>
       </c>
       <c r="AH120">
         <v>0</v>
@@ -17254,28 +17254,28 @@
         <v>0</v>
       </c>
       <c r="AJ120">
-        <v>1.4984963698622229</v>
+        <v>1.0956975434740841</v>
       </c>
       <c r="AK120">
-        <v>0.19494686617563478</v>
+        <v>0.18990707160903425</v>
       </c>
       <c r="AL120">
-        <v>0.24806882315282502</v>
+        <v>0.13535990547110971</v>
       </c>
       <c r="AM120">
-        <v>11.317442686930606</v>
+        <v>10.410979553701244</v>
       </c>
       <c r="AN120">
-        <v>14.234375</v>
+        <v>11.24375</v>
       </c>
       <c r="AO120">
-        <v>0.984375</v>
+        <v>0.7734375</v>
       </c>
       <c r="AP120">
-        <v>0.734375</v>
+        <v>0.4140625</v>
       </c>
       <c r="AQ120">
-        <v>20.3125</v>
+        <v>17.84375</v>
       </c>
       <c r="AR120">
         <v>70</v>
@@ -17316,7 +17316,7 @@
         <v>117.85368839831312</v>
       </c>
       <c r="J121">
-        <v>117.85368839384603</v>
+        <v>117.853688393846</v>
       </c>
       <c r="K121">
         <v>1.4705813782647539</v>
@@ -17358,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Y121">
         <v>0</v>
@@ -17370,7 +17370,7 @@
         <v>0</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -17394,28 +17394,28 @@
         <v>0</v>
       </c>
       <c r="AJ121">
-        <v>1.4567571624497881</v>
+        <v>1.0618672855691733</v>
       </c>
       <c r="AK121">
-        <v>0.16066134066844828</v>
+        <v>0.15850408800886015</v>
       </c>
       <c r="AL121">
-        <v>0.12699099489766463</v>
+        <v>0.10220843248250275</v>
       </c>
       <c r="AM121">
-        <v>13.553401000966069</v>
+        <v>9.861488714555275</v>
       </c>
       <c r="AN121">
-        <v>14.171875</v>
+        <v>10.512499999999999</v>
       </c>
       <c r="AO121">
-        <v>0.53125</v>
+        <v>0.76406249999999998</v>
       </c>
       <c r="AP121">
-        <v>0.125</v>
+        <v>0.35</v>
       </c>
       <c r="AQ121">
-        <v>21.375</v>
+        <v>17.123437500000001</v>
       </c>
       <c r="AR121">
         <v>73</v>
@@ -17450,13 +17450,13 @@
         <v>114.21770259634221</v>
       </c>
       <c r="H122">
-        <v>113.18632783536556</v>
+        <v>113.18632783536557</v>
       </c>
       <c r="I122">
-        <v>113.45460411620512</v>
+        <v>113.4546041162051</v>
       </c>
       <c r="J122">
-        <v>113.4546041235664</v>
+        <v>113.45460412356638</v>
       </c>
       <c r="K122">
         <v>1.0331095963422001</v>
@@ -17498,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="Y122">
         <v>102</v>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="AC122">
         <v>102</v>
@@ -17519,13 +17519,13 @@
         <v>102</v>
       </c>
       <c r="AE122">
-        <v>5.6128655088721988E-8</v>
+        <v>5.6128655088721981E-8</v>
       </c>
       <c r="AF122">
         <v>1.4910517265320777E-11</v>
       </c>
       <c r="AG122">
-        <v>4.1485111943061958E-10</v>
+        <v>4.1485111943061953E-10</v>
       </c>
       <c r="AH122">
         <v>0</v>
@@ -17534,28 +17534,28 @@
         <v>0</v>
       </c>
       <c r="AJ122">
-        <v>1.526368373988225</v>
+        <v>1.0506591395086951</v>
       </c>
       <c r="AK122">
-        <v>0.17275869943690847</v>
+        <v>0.17010969674867707</v>
       </c>
       <c r="AL122">
-        <v>0.1295402381431964</v>
+        <v>7.236319339067547E-2</v>
       </c>
       <c r="AM122">
-        <v>10.722529883366027</v>
+        <v>10.554903573924625</v>
       </c>
       <c r="AN122">
-        <v>12.71875</v>
+        <v>10.5609375</v>
       </c>
       <c r="AO122">
-        <v>0.78125</v>
+        <v>0.51875000000000004</v>
       </c>
       <c r="AP122">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="AQ122">
-        <v>18.1875</v>
+        <v>18.278124999999999</v>
       </c>
       <c r="AR122">
         <v>77</v>
@@ -17587,10 +17587,10 @@
         <v>3</v>
       </c>
       <c r="G123">
-        <v>109.24452162230041</v>
+        <v>109.24452162230043</v>
       </c>
       <c r="H123">
-        <v>108.61720436318136</v>
+        <v>108.61720436318134</v>
       </c>
       <c r="I123">
         <v>108.80292025561289</v>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="X123">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="Y123">
         <v>116</v>
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="AB123">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="AC123">
         <v>116</v>
@@ -17674,28 +17674,28 @@
         <v>0</v>
       </c>
       <c r="AJ123">
-        <v>0.87227515148560453</v>
+        <v>0.60269397073620079</v>
       </c>
       <c r="AK123">
-        <v>9.7019746050725705E-2</v>
+        <v>8.3487722181541518E-2</v>
       </c>
       <c r="AL123">
-        <v>9.0076682571104905E-2</v>
+        <v>6.0230189651152087E-2</v>
       </c>
       <c r="AM123">
-        <v>11.848852134911033</v>
+        <v>10.01288671383489</v>
       </c>
       <c r="AN123">
-        <v>9.140625</v>
+        <v>6.0875000000000004</v>
       </c>
       <c r="AO123">
-        <v>0.5</v>
+        <v>0.52656250000000004</v>
       </c>
       <c r="AP123">
-        <v>0.546875</v>
+        <v>0.17031250000000001</v>
       </c>
       <c r="AQ123">
-        <v>18.875</v>
+        <v>18.0703125</v>
       </c>
       <c r="AR123">
         <v>31</v>
